--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_16.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_4_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>532869.4545838305</v>
+        <v>462164.3779739796</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>418201.2022479179</v>
+        <v>409203.1627948469</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11421029.60825089</v>
+        <v>11312740.35580985</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8161978.824545813</v>
+        <v>8214283.919113948</v>
       </c>
     </row>
     <row r="11">
@@ -661,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.5891775064833</v>
       </c>
       <c r="F2" t="n">
-        <v>241.5891775064833</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -718,13 +718,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.025583927401</v>
+        <v>58.72873530486501</v>
       </c>
       <c r="D3" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>17.76425168466131</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>168.1572104236695</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T5" t="n">
-        <v>222.9651171964204</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>18.62406031006298</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>274.2838073416025</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.07867728478316</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>153.4237150659563</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>5.521978971826058</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
     </row>
     <row r="8">
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,64 +1144,64 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>36.36486963835937</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>141.8508227008771</v>
+      </c>
+      <c r="S8" t="n">
+        <v>122.5443985706642</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>251.4777635765444</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="H8" t="n">
-        <v>274.2838073416025</v>
-      </c>
-      <c r="I8" t="n">
-        <v>205.224307868124</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
       <c r="Y8" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,16 +1217,16 @@
         <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>78.71964920959023</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1274,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>150.9484950608364</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y9" t="n">
         <v>203.671151418586</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>75.29987199599606</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>276.3619165150583</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>243.4195760664634</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>353.3606744918873</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>353.3606744918873</v>
       </c>
       <c r="F11" t="n">
-        <v>276.3619165150583</v>
+        <v>353.3606744918873</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>186.6154245583216</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>124.6246575341329</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>276.3619165150583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1460,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>224.6569036391258</v>
+        <v>224.6475240054629</v>
       </c>
       <c r="V12" t="n">
         <v>231.9087310396551</v>
@@ -1517,7 +1517,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y12" t="n">
-        <v>161.4887145743788</v>
+        <v>145.7830581535696</v>
       </c>
     </row>
     <row r="13">
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.3744737468613</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>265.808137440018</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H14" t="n">
-        <v>133.0657736631796</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I14" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>170.050465482415</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H15" t="n">
-        <v>103.3985434322537</v>
+        <v>103.3985434322534</v>
       </c>
       <c r="I15" t="n">
-        <v>61.32090000246039</v>
+        <v>61.32090000246038</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.28281404613737</v>
+        <v>49.28281404613734</v>
       </c>
       <c r="S15" t="n">
-        <v>155.375818355853</v>
+        <v>155.3758183558542</v>
       </c>
       <c r="T15" t="n">
         <v>195.4343982340639</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>86.16455996342809</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.41377105177705</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>211.6710468967451</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>55.80490824636345</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>366.9850956789426</v>
@@ -1852,19 +1852,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>407.2938634805408</v>
+        <v>152.2572775930761</v>
       </c>
       <c r="G17" t="n">
-        <v>324.6452071206324</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>55.9798381690774</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H18" t="n">
-        <v>103.3985434322537</v>
+        <v>103.3985434322534</v>
       </c>
       <c r="I18" t="n">
-        <v>61.32090000246058</v>
+        <v>61.32090000246038</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>155.6904612099073</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>115.4665715641304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2086,13 +2086,13 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>324.6452071206324</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>158.1120627472092</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
@@ -2180,7 +2180,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I21" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>94.72021194624136</v>
+        <v>156.1821887834319</v>
       </c>
       <c r="I22" t="n">
-        <v>135.3180256216325</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>211.671046896745</v>
       </c>
       <c r="T22" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>46.63213802805145</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>172.9362838225903</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>356.6047327545984</v>
+        <v>41.17394075700645</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
@@ -2338,7 +2338,7 @@
         <v>324.1439237596927</v>
       </c>
       <c r="I23" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I24" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2481,10 +2481,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>88.53496544482003</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
-        <v>188.7729333976798</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,13 +2569,13 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I26" t="n">
-        <v>77.06086531588026</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>60.73651302142449</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="27">
@@ -2651,10 +2651,10 @@
         <v>135.2917907515943</v>
       </c>
       <c r="H27" t="n">
-        <v>103.3985434322539</v>
+        <v>103.3985434322537</v>
       </c>
       <c r="I27" t="n">
-        <v>61.32090000246037</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>128.4665504535168</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V28" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W28" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>128.3927968208129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>407.2938634805408</v>
@@ -2809,10 +2809,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H29" t="n">
-        <v>54.89424280747306</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>45.69034827966031</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,16 +2845,16 @@
         <v>174.714014505568</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>148.5756388816152</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>169.731854623711</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,25 +3031,25 @@
         <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
-        <v>366.9850956789426</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>41.47279459132023</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>370.8615991311694</v>
+        <v>252.9875372377841</v>
       </c>
       <c r="Y32" t="n">
         <v>386.6870717512358</v>
@@ -3122,7 +3122,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>135.2917907515943</v>
+        <v>135.2917907515945</v>
       </c>
       <c r="H33" t="n">
         <v>103.3985434322537</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.19550230474835</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>128.3927968208129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.0925768874155</v>
@@ -3271,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>368.91438347515</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -3283,7 +3283,7 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H35" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>152.5223218189376</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3684020854885</v>
+        <v>81.99328055466835</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>350.5301170005546</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>56.9183125199705</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>95.31032463304051</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
         <v>407.2938634805408</v>
@@ -3520,10 +3520,10 @@
         <v>413.4877467656314</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>217.4100889587118</v>
       </c>
       <c r="I38" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>216.980993107702</v>
@@ -3562,13 +3562,13 @@
         <v>251.3684020854885</v>
       </c>
       <c r="V38" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>245.3834614524953</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,13 +3669,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G40" t="n">
-        <v>122.7698011469827</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>88.19550230474833</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.4877467656314</v>
       </c>
       <c r="H41" t="n">
-        <v>201.7581986458303</v>
+        <v>265.4900176839877</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>103.3985434322537</v>
       </c>
       <c r="I42" t="n">
-        <v>61.32090000246014</v>
+        <v>61.32090000246058</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>128.4665504535168</v>
       </c>
       <c r="T43" t="n">
-        <v>195.7366998404602</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V43" t="n">
         <v>252.9363510669392</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>206.796794571429</v>
       </c>
       <c r="G44" t="n">
-        <v>105.7012605740806</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U44" t="n">
         <v>251.3684020854885</v>
       </c>
       <c r="V44" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>350.5301170005546</v>
@@ -4188,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U46" t="n">
         <v>286.0188232547115</v>
       </c>
       <c r="V46" t="n">
-        <v>95.31032463304012</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>155.6904612099074</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>265.9721768160992</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C2" t="n">
-        <v>265.9721768160992</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D2" t="n">
-        <v>265.9721768160992</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E2" t="n">
-        <v>265.9721768160992</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="F2" t="n">
-        <v>21.9427045873282</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="G2" t="n">
         <v>21.9427045873282</v>
@@ -4366,16 +4366,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V2" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W2" t="n">
-        <v>543.0265276662028</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X2" t="n">
-        <v>265.9721768160992</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y2" t="n">
-        <v>265.9721768160992</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>517.8373438740774</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="C3" t="n">
-        <v>345.0842287958946</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D3" t="n">
-        <v>197.4959221548385</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E3" t="n">
-        <v>39.88639315769316</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F3" t="n">
         <v>21.9427045873282</v>
@@ -4412,19 +4412,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K3" t="n">
-        <v>161.1846636454791</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L3" t="n">
-        <v>409.2622680873972</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M3" t="n">
-        <v>680.8032373555836</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N3" t="n">
-        <v>952.3442066237701</v>
+        <v>813.1022475656191</v>
       </c>
       <c r="O3" t="n">
-        <v>1097.13522936641</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P3" t="n">
         <v>1097.13522936641</v>
@@ -4433,28 +4433,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V3" t="n">
-        <v>1097.13522936641</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W3" t="n">
-        <v>1097.13522936641</v>
+        <v>287.7915580351497</v>
       </c>
       <c r="X3" t="n">
-        <v>890.6083307719874</v>
+        <v>81.2646594407272</v>
       </c>
       <c r="Y3" t="n">
-        <v>684.8798949956379</v>
+        <v>81.2646594407272</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4527,13 +4527,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21.9427045873282</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="C5" t="n">
-        <v>21.9427045873282</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="D5" t="n">
-        <v>21.9427045873282</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="E5" t="n">
-        <v>21.9427045873282</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="F5" t="n">
-        <v>21.9427045873282</v>
+        <v>191.7984726920449</v>
       </c>
       <c r="G5" t="n">
         <v>21.9427045873282</v>
@@ -4591,28 +4591,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R5" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S5" t="n">
-        <v>1097.13522936641</v>
+        <v>745.907174392252</v>
       </c>
       <c r="T5" t="n">
-        <v>871.9179392690156</v>
+        <v>745.907174392252</v>
       </c>
       <c r="U5" t="n">
-        <v>853.1057571376389</v>
+        <v>745.907174392252</v>
       </c>
       <c r="V5" t="n">
-        <v>853.1057571376389</v>
+        <v>745.907174392252</v>
       </c>
       <c r="W5" t="n">
-        <v>853.1057571376389</v>
+        <v>745.907174392252</v>
       </c>
       <c r="X5" t="n">
-        <v>576.0514062875353</v>
+        <v>468.8528235421485</v>
       </c>
       <c r="Y5" t="n">
-        <v>298.9970554374318</v>
+        <v>468.8528235421485</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>981.2022424513852</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C6" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D6" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E6" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J6" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L6" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M6" t="n">
-        <v>416.655578933882</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="N6" t="n">
-        <v>688.1965482020685</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O6" t="n">
-        <v>956.0761671793891</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P6" t="n">
         <v>1097.13522936641</v>
@@ -4670,28 +4670,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S6" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T6" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U6" t="n">
-        <v>1001.483734658237</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V6" t="n">
-        <v>1001.483734658237</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W6" t="n">
-        <v>1001.483734658237</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X6" t="n">
-        <v>1001.483734658237</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y6" t="n">
-        <v>1001.483734658237</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4749,28 +4749,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="R7" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S7" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T7" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U7" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V7" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W7" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X7" t="n">
-        <v>27.52046112452624</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y7" t="n">
-        <v>27.52046112452624</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="C8" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D8" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E8" t="n">
-        <v>820.0808785163064</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F8" t="n">
-        <v>783.348686962408</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G8" t="n">
-        <v>506.2943361123045</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H8" t="n">
-        <v>229.2399852622009</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I8" t="n">
         <v>21.9427045873282</v>
@@ -4828,28 +4828,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S8" t="n">
-        <v>1097.13522936641</v>
+        <v>830.0693492941459</v>
       </c>
       <c r="T8" t="n">
-        <v>1097.13522936641</v>
+        <v>830.0693492941459</v>
       </c>
       <c r="U8" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="V8" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="W8" t="n">
-        <v>1097.13522936641</v>
+        <v>576.0514062875353</v>
       </c>
       <c r="X8" t="n">
-        <v>1097.13522936641</v>
+        <v>298.9970554374318</v>
       </c>
       <c r="Y8" t="n">
-        <v>820.0808785163064</v>
+        <v>298.9970554374318</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>724.3642424684999</v>
+        <v>194.695819665511</v>
       </c>
       <c r="C9" t="n">
-        <v>551.6111273903171</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D9" t="n">
-        <v>404.0228207492609</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E9" t="n">
-        <v>246.4132917521156</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F9" t="n">
-        <v>101.4575017687325</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G9" t="n">
         <v>21.9427045873282</v>
@@ -4883,22 +4883,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K9" t="n">
-        <v>161.1846636454791</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L9" t="n">
-        <v>359.1441712859057</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M9" t="n">
-        <v>359.1441712859057</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N9" t="n">
-        <v>630.6851405540922</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O9" t="n">
-        <v>898.564759531413</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="P9" t="n">
         <v>1097.13522936641</v>
@@ -4910,25 +4910,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S9" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="T9" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="U9" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="V9" t="n">
-        <v>1097.13522936641</v>
+        <v>926.4669324920217</v>
       </c>
       <c r="W9" t="n">
-        <v>1097.13522936641</v>
+        <v>773.9937051578435</v>
       </c>
       <c r="X9" t="n">
-        <v>1097.13522936641</v>
+        <v>567.466806563421</v>
       </c>
       <c r="Y9" t="n">
-        <v>891.4067935900604</v>
+        <v>361.7383707870715</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I10" t="n">
-        <v>126.6025577647144</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J10" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K10" t="n">
         <v>21.9427045873282</v>
@@ -5001,13 +5001,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>547.1407640096104</v>
+        <v>1287.559205508829</v>
       </c>
       <c r="C11" t="n">
-        <v>301.2624043465161</v>
+        <v>1287.559205508829</v>
       </c>
       <c r="D11" t="n">
-        <v>301.2624043465161</v>
+        <v>930.6292312745998</v>
       </c>
       <c r="E11" t="n">
-        <v>301.2624043465161</v>
+        <v>573.6992570403702</v>
       </c>
       <c r="F11" t="n">
-        <v>22.10895332120466</v>
+        <v>216.7692828061406</v>
       </c>
       <c r="G11" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="H11" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="I11" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="J11" t="n">
-        <v>22.10895332120466</v>
+        <v>50.65843562542992</v>
       </c>
       <c r="K11" t="n">
-        <v>144.3855460528032</v>
+        <v>206.4912073741745</v>
       </c>
       <c r="L11" t="n">
-        <v>348.0495498954489</v>
+        <v>451.7846185279116</v>
       </c>
       <c r="M11" t="n">
-        <v>589.8772898807802</v>
+        <v>739.9330952748905</v>
       </c>
       <c r="N11" t="n">
-        <v>820.1008805299227</v>
+        <v>1017.226940633323</v>
       </c>
       <c r="O11" t="n">
-        <v>991.366137444694</v>
+        <v>1232.939304314799</v>
       </c>
       <c r="P11" t="n">
-        <v>1100.598278691689</v>
+        <v>1380.106022867018</v>
       </c>
       <c r="Q11" t="n">
-        <v>1105.447666060233</v>
+        <v>1413.442697967549</v>
       </c>
       <c r="R11" t="n">
-        <v>1105.447666060233</v>
+        <v>1287.559205508829</v>
       </c>
       <c r="S11" t="n">
-        <v>1105.447666060233</v>
+        <v>1287.559205508829</v>
       </c>
       <c r="T11" t="n">
-        <v>1105.447666060233</v>
+        <v>1287.559205508829</v>
       </c>
       <c r="U11" t="n">
-        <v>1105.447666060233</v>
+        <v>1287.559205508829</v>
       </c>
       <c r="V11" t="n">
-        <v>1105.447666060233</v>
+        <v>1287.559205508829</v>
       </c>
       <c r="W11" t="n">
-        <v>1105.447666060233</v>
+        <v>1287.559205508829</v>
       </c>
       <c r="X11" t="n">
-        <v>1105.447666060233</v>
+        <v>1287.559205508829</v>
       </c>
       <c r="Y11" t="n">
-        <v>826.2942150349218</v>
+        <v>1287.559205508829</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22.10895332120466</v>
+        <v>345.9777590209169</v>
       </c>
       <c r="C12" t="n">
-        <v>22.10895332120466</v>
+        <v>173.2246439427341</v>
       </c>
       <c r="D12" t="n">
-        <v>22.10895332120466</v>
+        <v>173.2246439427341</v>
       </c>
       <c r="E12" t="n">
-        <v>22.10895332120466</v>
+        <v>173.2246439427341</v>
       </c>
       <c r="F12" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="G12" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="H12" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="I12" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="J12" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="K12" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="L12" t="n">
-        <v>271.0799375167923</v>
+        <v>185.0394472839839</v>
       </c>
       <c r="M12" t="n">
-        <v>544.6782348667</v>
+        <v>534.8665150309523</v>
       </c>
       <c r="N12" t="n">
-        <v>818.2765322166076</v>
+        <v>884.6935827779207</v>
       </c>
       <c r="O12" t="n">
-        <v>1087.135106279219</v>
+        <v>1187.13407800303</v>
       </c>
       <c r="P12" t="n">
-        <v>1105.447666060233</v>
+        <v>1413.442697967549</v>
       </c>
       <c r="Q12" t="n">
-        <v>1105.447666060233</v>
+        <v>1413.442697967549</v>
       </c>
       <c r="R12" t="n">
-        <v>1105.447666060233</v>
+        <v>1413.442697967549</v>
       </c>
       <c r="S12" t="n">
-        <v>1105.447666060233</v>
+        <v>1413.442697967549</v>
       </c>
       <c r="T12" t="n">
-        <v>1105.447666060233</v>
+        <v>1413.442697967549</v>
       </c>
       <c r="U12" t="n">
-        <v>878.5215007681868</v>
+        <v>1186.52600705294</v>
       </c>
       <c r="V12" t="n">
-        <v>644.2702572937876</v>
+        <v>952.2747635785411</v>
       </c>
       <c r="W12" t="n">
-        <v>391.7557656271209</v>
+        <v>699.7602719118744</v>
       </c>
       <c r="X12" t="n">
-        <v>185.2288670326984</v>
+        <v>493.2333733174519</v>
       </c>
       <c r="Y12" t="n">
-        <v>22.10895332120466</v>
+        <v>345.9777590209169</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="C13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="D13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="E13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="F13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="G13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="H13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="I13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="J13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="K13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="L13" t="n">
-        <v>59.70831835689464</v>
+        <v>83.4608111974042</v>
       </c>
       <c r="M13" t="n">
-        <v>109.9444765894134</v>
+        <v>152.2458912438736</v>
       </c>
       <c r="N13" t="n">
-        <v>164.1273931573379</v>
+        <v>224.5366777238918</v>
       </c>
       <c r="O13" t="n">
-        <v>198.8374898115634</v>
+        <v>275.9723230856105</v>
       </c>
       <c r="P13" t="n">
-        <v>205.3154924594484</v>
+        <v>296.7619220805813</v>
       </c>
       <c r="Q13" t="n">
-        <v>205.3154924594484</v>
+        <v>296.7619220805813</v>
       </c>
       <c r="R13" t="n">
-        <v>205.3154924594484</v>
+        <v>296.7619220805813</v>
       </c>
       <c r="S13" t="n">
-        <v>22.10895332120466</v>
+        <v>296.7619220805813</v>
       </c>
       <c r="T13" t="n">
-        <v>22.10895332120466</v>
+        <v>296.7619220805813</v>
       </c>
       <c r="U13" t="n">
-        <v>22.10895332120466</v>
+        <v>296.7619220805813</v>
       </c>
       <c r="V13" t="n">
-        <v>22.10895332120466</v>
+        <v>296.7619220805813</v>
       </c>
       <c r="W13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="X13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
       <c r="Y13" t="n">
-        <v>22.10895332120466</v>
+        <v>28.26885395935099</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2288.962995379248</v>
+        <v>1169.305617891519</v>
       </c>
       <c r="C14" t="n">
-        <v>1918.270979541932</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="D14" t="n">
-        <v>1558.064178779711</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="E14" t="n">
-        <v>1171.07626387538</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="F14" t="n">
-        <v>759.6683209657431</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G14" t="n">
-        <v>342.0039302933881</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H14" t="n">
-        <v>207.594057906338</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I14" t="n">
-        <v>53.53110657407779</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J14" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K14" t="n">
-        <v>461.1915665632926</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L14" t="n">
-        <v>877.2105568248478</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M14" t="n">
-        <v>1355.324135626644</v>
+        <v>1355.324135626645</v>
       </c>
       <c r="N14" t="n">
-        <v>1825.656916993541</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O14" t="n">
         <v>2223.650474008049</v>
       </c>
       <c r="P14" t="n">
-        <v>2526.389973845556</v>
+        <v>2526.389973845557</v>
       </c>
       <c r="Q14" t="n">
-        <v>2676.555328703889</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R14" t="n">
-        <v>2676.555328703889</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="S14" t="n">
-        <v>2676.555328703889</v>
+        <v>2500.076526173013</v>
       </c>
       <c r="T14" t="n">
-        <v>2676.555328703889</v>
+        <v>2280.903805862203</v>
       </c>
       <c r="U14" t="n">
-        <v>2676.555328703889</v>
+        <v>2026.996329008174</v>
       </c>
       <c r="V14" t="n">
-        <v>2676.555328703889</v>
+        <v>1695.144590096539</v>
       </c>
       <c r="W14" t="n">
-        <v>2676.555328703889</v>
+        <v>1341.073764843453</v>
       </c>
       <c r="X14" t="n">
-        <v>2676.555328703889</v>
+        <v>1341.073764843453</v>
       </c>
       <c r="Y14" t="n">
-        <v>2676.555328703889</v>
+        <v>1169.305617891519</v>
       </c>
     </row>
     <row r="15">
@@ -5333,55 +5333,55 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670856</v>
       </c>
       <c r="C15" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889029</v>
       </c>
       <c r="D15" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478468</v>
       </c>
       <c r="E15" t="n">
-        <v>501.5285472507018</v>
+        <v>501.5285472507015</v>
       </c>
       <c r="F15" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673184</v>
       </c>
       <c r="G15" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707584</v>
       </c>
       <c r="H15" t="n">
         <v>115.4714096068661</v>
       </c>
       <c r="I15" t="n">
-        <v>53.53110657407779</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J15" t="n">
-        <v>129.3364848865956</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K15" t="n">
-        <v>239.7918714752589</v>
+        <v>385.5055637579835</v>
       </c>
       <c r="L15" t="n">
-        <v>645.0924182088978</v>
+        <v>790.8061104916226</v>
       </c>
       <c r="M15" t="n">
-        <v>1170.859233530005</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N15" t="n">
-        <v>1725.940263988107</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O15" t="n">
-        <v>2166.102944282446</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P15" t="n">
-        <v>2502.945759567336</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q15" t="n">
-        <v>2676.555328703889</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R15" t="n">
-        <v>2626.774708455266</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S15" t="n">
         <v>2469.829437388747</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.53110657407779</v>
+        <v>438.7120640364535</v>
       </c>
       <c r="C16" t="n">
-        <v>53.53110657407779</v>
+        <v>438.7120640364535</v>
       </c>
       <c r="D16" t="n">
-        <v>53.53110657407779</v>
+        <v>288.2013907894643</v>
       </c>
       <c r="E16" t="n">
-        <v>53.53110657407779</v>
+        <v>288.2013907894643</v>
       </c>
       <c r="F16" t="n">
-        <v>53.53110657407779</v>
+        <v>140.5660156280456</v>
       </c>
       <c r="G16" t="n">
-        <v>53.53110657407779</v>
+        <v>140.5660156280456</v>
       </c>
       <c r="H16" t="n">
-        <v>53.53110657407779</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I16" t="n">
-        <v>53.53110657407779</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J16" t="n">
-        <v>53.53110657407779</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K16" t="n">
         <v>109.4344173802942</v>
       </c>
       <c r="L16" t="n">
-        <v>236.7750235124168</v>
+        <v>236.7750235124169</v>
       </c>
       <c r="M16" t="n">
-        <v>381.6307378306508</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N16" t="n">
-        <v>528.1833689256789</v>
+        <v>528.1833689256791</v>
       </c>
       <c r="O16" t="n">
-        <v>648.2118474172123</v>
+        <v>648.2118474172127</v>
       </c>
       <c r="P16" t="n">
-        <v>727.6944649328324</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.9936860926535</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="R16" t="n">
-        <v>551.7012029919133</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="S16" t="n">
-        <v>337.8920647123729</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="T16" t="n">
-        <v>109.8997007623237</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="U16" t="n">
-        <v>53.53110657407779</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="V16" t="n">
-        <v>53.53110657407779</v>
+        <v>727.6944649328328</v>
       </c>
       <c r="W16" t="n">
-        <v>53.53110657407779</v>
+        <v>438.7120640364535</v>
       </c>
       <c r="X16" t="n">
-        <v>53.53110657407779</v>
+        <v>438.7120640364535</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.53110657407779</v>
+        <v>438.7120640364535</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1523.762317720254</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="C17" t="n">
-        <v>1153.070301882938</v>
+        <v>1853.666498945011</v>
       </c>
       <c r="D17" t="n">
-        <v>792.8635011207175</v>
+        <v>1493.45969818279</v>
       </c>
       <c r="E17" t="n">
-        <v>792.8635011207175</v>
+        <v>1106.471783278459</v>
       </c>
       <c r="F17" t="n">
-        <v>381.4555582110802</v>
+        <v>952.6765533864634</v>
       </c>
       <c r="G17" t="n">
-        <v>53.53110657407781</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="H17" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I17" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J17" t="n">
-        <v>167.7421803733074</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K17" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L17" t="n">
-        <v>877.2105568248486</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M17" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N17" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O17" t="n">
-        <v>2223.65047400805</v>
+        <v>2223.650474008049</v>
       </c>
       <c r="P17" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q17" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R17" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S17" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093137</v>
       </c>
       <c r="T17" t="n">
-        <v>2676.555328703891</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U17" t="n">
-        <v>2676.555328703891</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="V17" t="n">
-        <v>2676.555328703891</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="W17" t="n">
-        <v>2676.555328703891</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="X17" t="n">
-        <v>2301.947652813821</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="Y17" t="n">
-        <v>1911.354651044895</v>
+        <v>2224.358514782327</v>
       </c>
     </row>
     <row r="18">
@@ -5570,40 +5570,40 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670856</v>
       </c>
       <c r="C18" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889029</v>
       </c>
       <c r="D18" t="n">
-        <v>659.1380762478473</v>
+        <v>659.1380762478468</v>
       </c>
       <c r="E18" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507015</v>
       </c>
       <c r="F18" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673184</v>
       </c>
       <c r="G18" t="n">
-        <v>219.9143827707589</v>
+        <v>219.9143827707584</v>
       </c>
       <c r="H18" t="n">
-        <v>115.4714096068663</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I18" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J18" t="n">
         <v>129.3364848865957</v>
       </c>
       <c r="K18" t="n">
-        <v>385.5055637579836</v>
+        <v>385.5055637579835</v>
       </c>
       <c r="L18" t="n">
-        <v>645.0924182088986</v>
+        <v>790.8061104916226</v>
       </c>
       <c r="M18" t="n">
-        <v>1170.859233530005</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N18" t="n">
         <v>1725.940263988108</v>
@@ -5615,7 +5615,7 @@
         <v>2502.945759567337</v>
       </c>
       <c r="Q18" t="n">
-        <v>2676.555328703891</v>
+        <v>2676.55532870389</v>
       </c>
       <c r="R18" t="n">
         <v>2626.774708455267</v>
@@ -5639,7 +5639,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y18" t="n">
-        <v>1146.522049088647</v>
+        <v>1146.522049088646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>201.1664817354965</v>
+        <v>210.7941987052973</v>
       </c>
       <c r="C19" t="n">
-        <v>201.1664817354965</v>
+        <v>210.7941987052973</v>
       </c>
       <c r="D19" t="n">
-        <v>201.1664817354965</v>
+        <v>210.7941987052973</v>
       </c>
       <c r="E19" t="n">
-        <v>201.1664817354965</v>
+        <v>210.7941987052973</v>
       </c>
       <c r="F19" t="n">
-        <v>53.53110657407781</v>
+        <v>210.7941987052973</v>
       </c>
       <c r="G19" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="H19" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="I19" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="J19" t="n">
-        <v>53.53110657407781</v>
+        <v>53.5311065740778</v>
       </c>
       <c r="K19" t="n">
-        <v>109.4344173802943</v>
+        <v>109.4344173802942</v>
       </c>
       <c r="L19" t="n">
         <v>236.7750235124169</v>
@@ -5706,19 +5706,19 @@
         <v>499.7021009827837</v>
       </c>
       <c r="U19" t="n">
-        <v>499.7021009827837</v>
+        <v>210.7941987052973</v>
       </c>
       <c r="V19" t="n">
-        <v>499.7021009827837</v>
+        <v>210.7941987052973</v>
       </c>
       <c r="W19" t="n">
-        <v>499.7021009827837</v>
+        <v>210.7941987052973</v>
       </c>
       <c r="X19" t="n">
-        <v>499.7021009827837</v>
+        <v>210.7941987052973</v>
       </c>
       <c r="Y19" t="n">
-        <v>383.069200412955</v>
+        <v>210.7941987052973</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>424.2231224113936</v>
+        <v>1523.762317720254</v>
       </c>
       <c r="C20" t="n">
-        <v>53.53110657407781</v>
+        <v>1153.070301882938</v>
       </c>
       <c r="D20" t="n">
-        <v>53.53110657407781</v>
+        <v>792.8635011207175</v>
       </c>
       <c r="E20" t="n">
-        <v>53.53110657407781</v>
+        <v>464.9390494837151</v>
       </c>
       <c r="F20" t="n">
         <v>53.53110657407781</v>
@@ -5767,7 +5767,7 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O20" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P20" t="n">
         <v>2526.389973845557</v>
@@ -5782,22 +5782,22 @@
         <v>2676.555328703891</v>
       </c>
       <c r="T20" t="n">
-        <v>2516.84617441378</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="U20" t="n">
-        <v>2262.938697559752</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="V20" t="n">
-        <v>1931.086958648116</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="W20" t="n">
-        <v>1577.01613339503</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="X20" t="n">
-        <v>1202.40845750496</v>
+        <v>2301.947652813821</v>
       </c>
       <c r="Y20" t="n">
-        <v>811.8154557360351</v>
+        <v>1911.354651044895</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C21" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D21" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E21" t="n">
-        <v>501.5285472507018</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F21" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G21" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H21" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I21" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J21" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K21" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L21" t="n">
-        <v>715.0007321791047</v>
+        <v>790.8061104916227</v>
       </c>
       <c r="M21" t="n">
-        <v>1240.767547500212</v>
+        <v>1316.572925812729</v>
       </c>
       <c r="N21" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O21" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P21" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q21" t="n">
         <v>2676.555328703891</v>
@@ -5876,7 +5876,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y21" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>285.8929627032434</v>
+        <v>211.290893224009</v>
       </c>
       <c r="C22" t="n">
-        <v>285.8929627032434</v>
+        <v>211.290893224009</v>
       </c>
       <c r="D22" t="n">
-        <v>285.8929627032434</v>
+        <v>211.290893224009</v>
       </c>
       <c r="E22" t="n">
-        <v>285.8929627032434</v>
+        <v>211.290893224009</v>
       </c>
       <c r="F22" t="n">
-        <v>285.8929627032434</v>
+        <v>211.290893224009</v>
       </c>
       <c r="G22" t="n">
-        <v>285.8929627032434</v>
+        <v>211.290893224009</v>
       </c>
       <c r="H22" t="n">
-        <v>190.2159809393632</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I22" t="n">
         <v>53.53110657407781</v>
@@ -5940,22 +5940,22 @@
         <v>513.8853266532925</v>
       </c>
       <c r="T22" t="n">
-        <v>285.8929627032434</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="U22" t="n">
-        <v>285.8929627032434</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="V22" t="n">
-        <v>285.8929627032434</v>
+        <v>258.3940629493135</v>
       </c>
       <c r="W22" t="n">
-        <v>285.8929627032434</v>
+        <v>211.290893224009</v>
       </c>
       <c r="X22" t="n">
-        <v>285.8929627032434</v>
+        <v>211.290893224009</v>
       </c>
       <c r="Y22" t="n">
-        <v>285.8929627032434</v>
+        <v>211.290893224009</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2285.962326934965</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="C23" t="n">
-        <v>2111.279211962652</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="D23" t="n">
-        <v>1751.072411200432</v>
+        <v>1597.009459868171</v>
       </c>
       <c r="E23" t="n">
-        <v>1364.084496296101</v>
+        <v>1210.021544963841</v>
       </c>
       <c r="F23" t="n">
-        <v>952.6765533864634</v>
+        <v>798.6136020542033</v>
       </c>
       <c r="G23" t="n">
-        <v>535.0121627141084</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H23" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I23" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J23" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K23" t="n">
-        <v>461.1915665632932</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L23" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248481</v>
       </c>
       <c r="M23" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N23" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O23" t="n">
         <v>2223.65047400805</v>
@@ -6013,28 +6013,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R23" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S23" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T23" t="n">
-        <v>2676.555328703891</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U23" t="n">
-        <v>2676.555328703891</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V23" t="n">
-        <v>2676.555328703891</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="W23" t="n">
-        <v>2676.555328703891</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="X23" t="n">
-        <v>2676.555328703891</v>
+        <v>1638.599299016663</v>
       </c>
       <c r="Y23" t="n">
-        <v>2285.962326934965</v>
+        <v>1638.599299016663</v>
       </c>
     </row>
     <row r="24">
@@ -6059,34 +6059,34 @@
         <v>356.5727572673188</v>
       </c>
       <c r="G24" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H24" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I24" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J24" t="n">
-        <v>53.53110657407781</v>
+        <v>129.3364848865957</v>
       </c>
       <c r="K24" t="n">
-        <v>309.7001854454657</v>
+        <v>385.5055637579836</v>
       </c>
       <c r="L24" t="n">
-        <v>715.0007321791047</v>
+        <v>645.0924182088986</v>
       </c>
       <c r="M24" t="n">
-        <v>1240.767547500212</v>
+        <v>1170.859233530005</v>
       </c>
       <c r="N24" t="n">
-        <v>1795.848577958314</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O24" t="n">
-        <v>2236.011258252653</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P24" t="n">
-        <v>2572.854073537543</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q24" t="n">
         <v>2676.555328703891</v>
@@ -6095,19 +6095,19 @@
         <v>2626.774708455267</v>
       </c>
       <c r="S24" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T24" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U24" t="n">
-        <v>2045.543118600485</v>
+        <v>2045.543118600484</v>
       </c>
       <c r="V24" t="n">
         <v>1811.291875126085</v>
       </c>
       <c r="W24" t="n">
-        <v>1558.777383459419</v>
+        <v>1558.777383459418</v>
       </c>
       <c r="X24" t="n">
         <v>1352.250484864996</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.53110657407781</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="C25" t="n">
-        <v>53.53110657407781</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="D25" t="n">
-        <v>53.53110657407781</v>
+        <v>201.9903229106426</v>
       </c>
       <c r="E25" t="n">
         <v>53.53110657407781</v>
@@ -6171,28 +6171,28 @@
         <v>727.6944649328329</v>
       </c>
       <c r="R25" t="n">
-        <v>727.6944649328329</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="S25" t="n">
-        <v>727.6944649328329</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="T25" t="n">
-        <v>499.7021009827838</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="U25" t="n">
-        <v>499.7021009827838</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="V25" t="n">
-        <v>244.2108372788048</v>
+        <v>580.4019818320927</v>
       </c>
       <c r="W25" t="n">
-        <v>244.2108372788048</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="X25" t="n">
-        <v>53.53110657407781</v>
+        <v>291.4195809357134</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.53110657407781</v>
+        <v>291.4195809357134</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2035.055518525221</v>
+        <v>1539.551869958037</v>
       </c>
       <c r="C26" t="n">
-        <v>2035.055518525221</v>
+        <v>1539.551869958037</v>
       </c>
       <c r="D26" t="n">
-        <v>1674.848717763</v>
+        <v>1179.345069195816</v>
       </c>
       <c r="E26" t="n">
-        <v>1287.860802858669</v>
+        <v>792.3571542914855</v>
       </c>
       <c r="F26" t="n">
-        <v>876.4528599490318</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="G26" t="n">
-        <v>458.7884692766768</v>
+        <v>380.9492113818482</v>
       </c>
       <c r="H26" t="n">
-        <v>131.3703644689064</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I26" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J26" t="n">
-        <v>167.7421803733073</v>
+        <v>167.7421803733075</v>
       </c>
       <c r="K26" t="n">
-        <v>461.1915665632928</v>
+        <v>461.1915665632929</v>
       </c>
       <c r="L26" t="n">
-        <v>877.2105568248481</v>
+        <v>877.2105568248483</v>
       </c>
       <c r="M26" t="n">
         <v>1355.324135626645</v>
@@ -6250,28 +6250,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R26" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S26" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="T26" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="U26" t="n">
-        <v>2422.647851849862</v>
+        <v>2366.102560769986</v>
       </c>
       <c r="V26" t="n">
-        <v>2422.647851849862</v>
+        <v>2366.102560769986</v>
       </c>
       <c r="W26" t="n">
-        <v>2422.647851849862</v>
+        <v>2304.752547617032</v>
       </c>
       <c r="X26" t="n">
-        <v>2422.647851849862</v>
+        <v>1930.144871726962</v>
       </c>
       <c r="Y26" t="n">
-        <v>2422.647851849862</v>
+        <v>1539.551869958037</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>219.9143827707589</v>
       </c>
       <c r="H27" t="n">
-        <v>115.4714096068661</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I27" t="n">
         <v>53.53110657407781</v>
@@ -6317,13 +6317,13 @@
         <v>1316.572925812729</v>
       </c>
       <c r="N27" t="n">
-        <v>1871.653956270832</v>
+        <v>1725.940263988108</v>
       </c>
       <c r="O27" t="n">
-        <v>2311.81663656517</v>
+        <v>2166.102944282447</v>
       </c>
       <c r="P27" t="n">
-        <v>2648.659451850061</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q27" t="n">
         <v>2676.555328703891</v>
@@ -6414,19 +6414,19 @@
         <v>727.6944649328329</v>
       </c>
       <c r="T28" t="n">
-        <v>727.6944649328329</v>
+        <v>597.9302725555432</v>
       </c>
       <c r="U28" t="n">
-        <v>727.6944649328329</v>
+        <v>309.0223702780568</v>
       </c>
       <c r="V28" t="n">
-        <v>472.203201228854</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="W28" t="n">
-        <v>183.2208003324747</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X28" t="n">
-        <v>183.2208003324747</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y28" t="n">
         <v>53.53110657407781</v>
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2055.938901768496</v>
+        <v>1616.380212675213</v>
       </c>
       <c r="C29" t="n">
-        <v>1685.24688593118</v>
+        <v>1616.380212675213</v>
       </c>
       <c r="D29" t="n">
-        <v>1325.04008516896</v>
+        <v>1256.173411912992</v>
       </c>
       <c r="E29" t="n">
-        <v>938.0521702646288</v>
+        <v>1256.173411912992</v>
       </c>
       <c r="F29" t="n">
-        <v>526.6442273549915</v>
+        <v>844.7654690033551</v>
       </c>
       <c r="G29" t="n">
-        <v>108.9798366826365</v>
+        <v>427.1010783310001</v>
       </c>
       <c r="H29" t="n">
-        <v>53.53110657407781</v>
+        <v>99.68297352322963</v>
       </c>
       <c r="I29" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J29" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K29" t="n">
         <v>461.1915665632932</v>
       </c>
       <c r="L29" t="n">
-        <v>877.2105568248485</v>
+        <v>877.2105568248489</v>
       </c>
       <c r="M29" t="n">
-        <v>1355.324135626645</v>
+        <v>1355.324135626646</v>
       </c>
       <c r="N29" t="n">
         <v>1825.656916993543</v>
@@ -6493,22 +6493,22 @@
         <v>2443.531235093138</v>
       </c>
       <c r="T29" t="n">
-        <v>2443.531235093138</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.531235093138</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="V29" t="n">
-        <v>2443.531235093138</v>
+        <v>1970.451037928299</v>
       </c>
       <c r="W29" t="n">
-        <v>2443.531235093138</v>
+        <v>1616.380212675213</v>
       </c>
       <c r="X29" t="n">
-        <v>2443.531235093138</v>
+        <v>1616.380212675213</v>
       </c>
       <c r="Y29" t="n">
-        <v>2443.531235093138</v>
+        <v>1616.380212675213</v>
       </c>
     </row>
     <row r="30">
@@ -6533,10 +6533,10 @@
         <v>356.5727572673186</v>
       </c>
       <c r="G30" t="n">
-        <v>219.9143827707585</v>
+        <v>219.9143827707587</v>
       </c>
       <c r="H30" t="n">
-        <v>115.471409606866</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I30" t="n">
         <v>53.53110657407781</v>
@@ -6554,13 +6554,13 @@
         <v>1316.572925812729</v>
       </c>
       <c r="N30" t="n">
-        <v>1725.940263988108</v>
+        <v>1871.653956270832</v>
       </c>
       <c r="O30" t="n">
-        <v>2166.102944282447</v>
+        <v>2311.81663656517</v>
       </c>
       <c r="P30" t="n">
-        <v>2502.945759567337</v>
+        <v>2648.659451850061</v>
       </c>
       <c r="Q30" t="n">
         <v>2676.555328703891</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.53110657407781</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="C31" t="n">
-        <v>53.53110657407781</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="D31" t="n">
-        <v>53.53110657407781</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="E31" t="n">
-        <v>53.53110657407781</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="F31" t="n">
         <v>53.53110657407781</v>
@@ -6648,25 +6648,25 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S31" t="n">
-        <v>513.8853266532925</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T31" t="n">
-        <v>513.8853266532925</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="U31" t="n">
-        <v>224.9774243758061</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="V31" t="n">
-        <v>224.9774243758061</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="W31" t="n">
-        <v>224.9774243758061</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="X31" t="n">
-        <v>53.53110657407781</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.53110657407781</v>
+        <v>349.6256980720614</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1171.417838077945</v>
+        <v>1423.654306392661</v>
       </c>
       <c r="C32" t="n">
-        <v>800.7258222406292</v>
+        <v>1423.654306392661</v>
       </c>
       <c r="D32" t="n">
-        <v>440.5190214784086</v>
+        <v>1423.654306392661</v>
       </c>
       <c r="E32" t="n">
-        <v>53.53110657407781</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="F32" t="n">
-        <v>53.53110657407781</v>
+        <v>625.258448578693</v>
       </c>
       <c r="G32" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="H32" t="n">
-        <v>53.53110657407781</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I32" t="n">
         <v>53.53110657407781</v>
       </c>
       <c r="J32" t="n">
-        <v>167.7421803733075</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K32" t="n">
-        <v>461.1915665632929</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L32" t="n">
-        <v>877.2105568248483</v>
+        <v>877.2105568248489</v>
       </c>
       <c r="M32" t="n">
-        <v>1355.324135626645</v>
+        <v>1355.324135626646</v>
       </c>
       <c r="N32" t="n">
-        <v>1825.656916993542</v>
+        <v>1825.656916993543</v>
       </c>
       <c r="O32" t="n">
         <v>2223.65047400805</v>
@@ -6724,28 +6724,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R32" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S32" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T32" t="n">
-        <v>2620.010037624014</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U32" t="n">
-        <v>2366.102560769986</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="V32" t="n">
-        <v>2324.210849061581</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="W32" t="n">
-        <v>2324.210849061581</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="X32" t="n">
-        <v>1949.603173171512</v>
+        <v>2201.839641486228</v>
       </c>
       <c r="Y32" t="n">
-        <v>1559.010171402586</v>
+        <v>1811.246639717303</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C33" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D33" t="n">
-        <v>659.138076247847</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E33" t="n">
-        <v>501.5285472507018</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F33" t="n">
-        <v>356.5727572673186</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G33" t="n">
         <v>219.9143827707587</v>
@@ -6779,25 +6779,25 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J33" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K33" t="n">
-        <v>385.5055637579836</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L33" t="n">
-        <v>790.8061104916227</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M33" t="n">
-        <v>1316.572925812729</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N33" t="n">
-        <v>1871.653956270832</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O33" t="n">
-        <v>2311.81663656517</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P33" t="n">
-        <v>2648.659451850061</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q33" t="n">
         <v>2676.555328703891</v>
@@ -6824,7 +6824,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="C34" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="D34" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="E34" t="n">
-        <v>53.53110657407781</v>
+        <v>290.2528476998888</v>
       </c>
       <c r="F34" t="n">
-        <v>53.53110657407781</v>
+        <v>142.6174725384701</v>
       </c>
       <c r="G34" t="n">
-        <v>53.53110657407781</v>
+        <v>142.6174725384701</v>
       </c>
       <c r="H34" t="n">
-        <v>53.53110657407781</v>
+        <v>142.6174725384701</v>
       </c>
       <c r="I34" t="n">
         <v>53.53110657407781</v>
@@ -6891,19 +6891,19 @@
         <v>727.6944649328329</v>
       </c>
       <c r="U34" t="n">
-        <v>598.0047711744361</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="V34" t="n">
-        <v>342.5135074704571</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="W34" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="X34" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7120640364536</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.53110657407781</v>
+        <v>438.7120640364536</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1736.725287685141</v>
+        <v>1396.873192250551</v>
       </c>
       <c r="C35" t="n">
-        <v>1736.725287685141</v>
+        <v>1396.873192250551</v>
       </c>
       <c r="D35" t="n">
-        <v>1736.725287685141</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="E35" t="n">
-        <v>1364.084496296101</v>
+        <v>1036.66639148833</v>
       </c>
       <c r="F35" t="n">
-        <v>952.6765533864634</v>
+        <v>625.258448578693</v>
       </c>
       <c r="G35" t="n">
-        <v>535.0121627141084</v>
+        <v>207.594057906338</v>
       </c>
       <c r="H35" t="n">
         <v>207.594057906338</v>
@@ -6937,13 +6937,13 @@
         <v>53.53110657407781</v>
       </c>
       <c r="J35" t="n">
-        <v>167.7421803733072</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K35" t="n">
-        <v>461.1915665632927</v>
+        <v>461.1915665632928</v>
       </c>
       <c r="L35" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248481</v>
       </c>
       <c r="M35" t="n">
         <v>1355.324135626645</v>
@@ -6961,28 +6961,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R35" t="n">
-        <v>2676.555328703891</v>
+        <v>2620.010037624014</v>
       </c>
       <c r="S35" t="n">
-        <v>2676.555328703891</v>
+        <v>2443.531235093138</v>
       </c>
       <c r="T35" t="n">
-        <v>2676.555328703891</v>
+        <v>2224.358514782327</v>
       </c>
       <c r="U35" t="n">
-        <v>2422.647851849862</v>
+        <v>2141.537019272561</v>
       </c>
       <c r="V35" t="n">
-        <v>2090.796112938227</v>
+        <v>2141.537019272561</v>
       </c>
       <c r="W35" t="n">
-        <v>1736.725287685141</v>
+        <v>1787.466194019476</v>
       </c>
       <c r="X35" t="n">
-        <v>1736.725287685141</v>
+        <v>1787.466194019476</v>
       </c>
       <c r="Y35" t="n">
-        <v>1736.725287685141</v>
+        <v>1396.873192250551</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>979.479497967086</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C36" t="n">
-        <v>806.7263828889031</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D36" t="n">
-        <v>659.1380762478469</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E36" t="n">
-        <v>501.5285472507016</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F36" t="n">
-        <v>356.5727572673185</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G36" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H36" t="n">
-        <v>115.471409606866</v>
+        <v>115.4714096068661</v>
       </c>
       <c r="I36" t="n">
         <v>53.53110657407781</v>
@@ -7019,22 +7019,22 @@
         <v>53.53110657407781</v>
       </c>
       <c r="K36" t="n">
-        <v>239.7918714752595</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L36" t="n">
-        <v>645.0924182088986</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M36" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N36" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O36" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P36" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q36" t="n">
         <v>2676.555328703891</v>
@@ -7043,25 +7043,25 @@
         <v>2626.774708455267</v>
       </c>
       <c r="S36" t="n">
-        <v>2469.829437388747</v>
+        <v>2469.829437388748</v>
       </c>
       <c r="T36" t="n">
-        <v>2272.420954324036</v>
+        <v>2272.420954324037</v>
       </c>
       <c r="U36" t="n">
-        <v>2045.543118600484</v>
+        <v>2045.543118600485</v>
       </c>
       <c r="V36" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W36" t="n">
-        <v>1558.777383459418</v>
+        <v>1558.777383459419</v>
       </c>
       <c r="X36" t="n">
         <v>1352.250484864996</v>
       </c>
       <c r="Y36" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="37">
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.53110657407781</v>
+        <v>111.024351543745</v>
       </c>
       <c r="C37" t="n">
-        <v>53.53110657407781</v>
+        <v>111.024351543745</v>
       </c>
       <c r="D37" t="n">
         <v>53.53110657407781</v>
@@ -7122,25 +7122,25 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S37" t="n">
-        <v>727.6944649328329</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="T37" t="n">
-        <v>727.6944649328329</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="U37" t="n">
-        <v>438.7865626553465</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="V37" t="n">
-        <v>342.5135074704571</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="W37" t="n">
-        <v>53.53110657407781</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="X37" t="n">
-        <v>53.53110657407781</v>
+        <v>513.8853266532925</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.53110657407781</v>
+        <v>292.9270702212034</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1036.66639148833</v>
+        <v>1849.404306285967</v>
       </c>
       <c r="C38" t="n">
-        <v>1036.66639148833</v>
+        <v>1849.404306285967</v>
       </c>
       <c r="D38" t="n">
-        <v>1036.66639148833</v>
+        <v>1489.197505523746</v>
       </c>
       <c r="E38" t="n">
-        <v>1036.66639148833</v>
+        <v>1102.209590619415</v>
       </c>
       <c r="F38" t="n">
-        <v>625.258448578693</v>
+        <v>690.8016477097781</v>
       </c>
       <c r="G38" t="n">
-        <v>207.594057906338</v>
+        <v>273.1372570374231</v>
       </c>
       <c r="H38" t="n">
-        <v>207.594057906338</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="I38" t="n">
         <v>53.53110657407782</v>
@@ -7186,7 +7186,7 @@
         <v>1355.324135626645</v>
       </c>
       <c r="N38" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O38" t="n">
         <v>2223.65047400805</v>
@@ -7198,28 +7198,28 @@
         <v>2676.555328703891</v>
       </c>
       <c r="R38" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S38" t="n">
-        <v>2443.531235093138</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T38" t="n">
-        <v>2224.358514782328</v>
+        <v>2457.382608393081</v>
       </c>
       <c r="U38" t="n">
-        <v>1970.451037928299</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="V38" t="n">
-        <v>1638.599299016663</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="W38" t="n">
-        <v>1284.528473763578</v>
+        <v>1849.404306285967</v>
       </c>
       <c r="X38" t="n">
-        <v>1036.66639148833</v>
+        <v>1849.404306285967</v>
       </c>
       <c r="Y38" t="n">
-        <v>1036.66639148833</v>
+        <v>1849.404306285967</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>979.4794979670861</v>
+        <v>979.4794979670864</v>
       </c>
       <c r="C39" t="n">
-        <v>806.7263828889033</v>
+        <v>806.7263828889035</v>
       </c>
       <c r="D39" t="n">
         <v>659.1380762478473</v>
       </c>
       <c r="E39" t="n">
-        <v>501.528547250702</v>
+        <v>501.5285472507019</v>
       </c>
       <c r="F39" t="n">
-        <v>356.5727572673188</v>
+        <v>356.5727572673187</v>
       </c>
       <c r="G39" t="n">
-        <v>219.9143827707587</v>
+        <v>219.9143827707585</v>
       </c>
       <c r="H39" t="n">
-        <v>115.4714096068661</v>
+        <v>115.471409606866</v>
       </c>
       <c r="I39" t="n">
         <v>53.53110657407782</v>
       </c>
       <c r="J39" t="n">
-        <v>129.3364848865957</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="K39" t="n">
-        <v>385.5055637579836</v>
+        <v>239.79187147526</v>
       </c>
       <c r="L39" t="n">
-        <v>790.8061104916227</v>
+        <v>645.0924182088991</v>
       </c>
       <c r="M39" t="n">
-        <v>1316.572925812729</v>
+        <v>1170.859233530006</v>
       </c>
       <c r="N39" t="n">
         <v>1725.940263988108</v>
@@ -7289,7 +7289,7 @@
         <v>2045.543118600485</v>
       </c>
       <c r="V39" t="n">
-        <v>1811.291875126085</v>
+        <v>1811.291875126086</v>
       </c>
       <c r="W39" t="n">
         <v>1558.777383459419</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.5410067225452</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="C40" t="n">
-        <v>177.5410067225452</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="D40" t="n">
-        <v>177.5410067225452</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="E40" t="n">
-        <v>177.5410067225452</v>
+        <v>201.1664817354965</v>
       </c>
       <c r="F40" t="n">
-        <v>177.5410067225452</v>
+        <v>53.53110657407782</v>
       </c>
       <c r="G40" t="n">
         <v>53.53110657407782</v>
@@ -7356,28 +7356,28 @@
         <v>727.6944649328329</v>
       </c>
       <c r="R40" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S40" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T40" t="n">
-        <v>580.4019818320927</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="U40" t="n">
-        <v>580.4019818320927</v>
+        <v>638.6080989684407</v>
       </c>
       <c r="V40" t="n">
-        <v>580.4019818320927</v>
+        <v>638.6080989684407</v>
       </c>
       <c r="W40" t="n">
-        <v>580.4019818320927</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="X40" t="n">
-        <v>580.4019818320927</v>
+        <v>349.6256980720614</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.4437254000036</v>
+        <v>349.6256980720614</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1086.399600404384</v>
+        <v>739.3672322807638</v>
       </c>
       <c r="C41" t="n">
-        <v>1086.399600404384</v>
+        <v>739.3672322807638</v>
       </c>
       <c r="D41" t="n">
-        <v>1086.399600404384</v>
+        <v>739.3672322807638</v>
       </c>
       <c r="E41" t="n">
-        <v>1086.399600404384</v>
+        <v>739.3672322807638</v>
       </c>
       <c r="F41" t="n">
-        <v>674.9916574947463</v>
+        <v>739.3672322807638</v>
       </c>
       <c r="G41" t="n">
-        <v>257.3272668223913</v>
+        <v>321.7028416084088</v>
       </c>
       <c r="H41" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I41" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J41" t="n">
-        <v>167.7421803733072</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K41" t="n">
-        <v>461.1915665632927</v>
+        <v>461.1915665632932</v>
       </c>
       <c r="L41" t="n">
-        <v>877.210556824848</v>
+        <v>877.2105568248485</v>
       </c>
       <c r="M41" t="n">
         <v>1355.324135626645</v>
@@ -7426,37 +7426,37 @@
         <v>1825.656916993542</v>
       </c>
       <c r="O41" t="n">
-        <v>2223.650474008049</v>
+        <v>2223.65047400805</v>
       </c>
       <c r="P41" t="n">
         <v>2526.389973845557</v>
       </c>
       <c r="Q41" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R41" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S41" t="n">
-        <v>2620.010037624014</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T41" t="n">
-        <v>2400.837317313204</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U41" t="n">
-        <v>2146.929840459175</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="V41" t="n">
-        <v>1815.078101547539</v>
+        <v>1871.623392627416</v>
       </c>
       <c r="W41" t="n">
-        <v>1461.007276294454</v>
+        <v>1517.55256737433</v>
       </c>
       <c r="X41" t="n">
-        <v>1086.399600404384</v>
+        <v>1517.55256737433</v>
       </c>
       <c r="Y41" t="n">
-        <v>1086.399600404384</v>
+        <v>1126.959565605405</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>979.4794979670856</v>
+        <v>979.4794979670861</v>
       </c>
       <c r="C42" t="n">
-        <v>806.7263828889029</v>
+        <v>806.7263828889033</v>
       </c>
       <c r="D42" t="n">
-        <v>659.1380762478468</v>
+        <v>659.1380762478473</v>
       </c>
       <c r="E42" t="n">
-        <v>501.5285472507015</v>
+        <v>501.528547250702</v>
       </c>
       <c r="F42" t="n">
-        <v>356.5727572673184</v>
+        <v>356.5727572673188</v>
       </c>
       <c r="G42" t="n">
-        <v>219.9143827707584</v>
+        <v>219.9143827707589</v>
       </c>
       <c r="H42" t="n">
-        <v>115.4714096068658</v>
+        <v>115.4714096068663</v>
       </c>
       <c r="I42" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J42" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K42" t="n">
-        <v>239.7918714752591</v>
+        <v>309.7001854454657</v>
       </c>
       <c r="L42" t="n">
-        <v>645.0924182088982</v>
+        <v>715.0007321791047</v>
       </c>
       <c r="M42" t="n">
-        <v>1170.859233530005</v>
+        <v>1240.767547500212</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.940263988108</v>
+        <v>1795.848577958314</v>
       </c>
       <c r="O42" t="n">
-        <v>2166.102944282447</v>
+        <v>2236.011258252653</v>
       </c>
       <c r="P42" t="n">
-        <v>2502.945759567337</v>
+        <v>2572.854073537543</v>
       </c>
       <c r="Q42" t="n">
-        <v>2676.55532870389</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="R42" t="n">
         <v>2626.774708455267</v>
@@ -7535,7 +7535,7 @@
         <v>1352.250484864996</v>
       </c>
       <c r="Y42" t="n">
-        <v>1146.522049088646</v>
+        <v>1146.522049088647</v>
       </c>
     </row>
     <row r="43">
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K43" t="n">
-        <v>109.4344173802942</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L43" t="n">
-        <v>236.7750235124169</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M43" t="n">
         <v>381.630737830651</v>
@@ -7596,25 +7596,25 @@
         <v>727.6944649328329</v>
       </c>
       <c r="S43" t="n">
-        <v>727.6944649328329</v>
+        <v>597.9302725555432</v>
       </c>
       <c r="T43" t="n">
-        <v>529.9806267101459</v>
+        <v>597.9302725555432</v>
       </c>
       <c r="U43" t="n">
-        <v>529.9806267101459</v>
+        <v>309.0223702780568</v>
       </c>
       <c r="V43" t="n">
-        <v>274.4893630061669</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="W43" t="n">
-        <v>274.4893630061669</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="X43" t="n">
-        <v>274.4893630061669</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.5311065740778</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>917.9799873905533</v>
+        <v>1474.796630395896</v>
       </c>
       <c r="C44" t="n">
-        <v>547.2879715532375</v>
+        <v>1104.104614558581</v>
       </c>
       <c r="D44" t="n">
-        <v>547.2879715532375</v>
+        <v>743.89781379636</v>
       </c>
       <c r="E44" t="n">
-        <v>160.3000566489067</v>
+        <v>743.89781379636</v>
       </c>
       <c r="F44" t="n">
-        <v>160.3000566489067</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="G44" t="n">
-        <v>53.53110657407782</v>
+        <v>535.0121627141084</v>
       </c>
       <c r="H44" t="n">
-        <v>53.53110657407782</v>
+        <v>207.594057906338</v>
       </c>
       <c r="I44" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J44" t="n">
-        <v>167.7421803733077</v>
+        <v>167.7421803733073</v>
       </c>
       <c r="K44" t="n">
-        <v>461.1915665632931</v>
+        <v>461.1915665632927</v>
       </c>
       <c r="L44" t="n">
-        <v>877.2105568248485</v>
+        <v>877.210556824848</v>
       </c>
       <c r="M44" t="n">
         <v>1355.324135626645</v>
       </c>
       <c r="N44" t="n">
-        <v>1825.656916993543</v>
+        <v>1825.656916993542</v>
       </c>
       <c r="O44" t="n">
         <v>2223.65047400805</v>
       </c>
       <c r="P44" t="n">
-        <v>2526.389973845558</v>
+        <v>2526.389973845557</v>
       </c>
       <c r="Q44" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R44" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="S44" t="n">
-        <v>2620.010037624015</v>
+        <v>2676.555328703891</v>
       </c>
       <c r="T44" t="n">
-        <v>2620.010037624015</v>
+        <v>2457.38260839308</v>
       </c>
       <c r="U44" t="n">
-        <v>2366.102560769986</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="V44" t="n">
-        <v>2034.25082185835</v>
+        <v>2203.475131539052</v>
       </c>
       <c r="W44" t="n">
-        <v>1680.179996605265</v>
+        <v>1849.404306285966</v>
       </c>
       <c r="X44" t="n">
-        <v>1305.572320715195</v>
+        <v>1474.796630395896</v>
       </c>
       <c r="Y44" t="n">
-        <v>1305.572320715195</v>
+        <v>1474.796630395896</v>
       </c>
     </row>
     <row r="45">
@@ -7715,7 +7715,7 @@
         <v>501.5285472507018</v>
       </c>
       <c r="F45" t="n">
-        <v>356.5727572673187</v>
+        <v>356.5727572673186</v>
       </c>
       <c r="G45" t="n">
         <v>219.9143827707587</v>
@@ -7724,19 +7724,19 @@
         <v>115.4714096068661</v>
       </c>
       <c r="I45" t="n">
-        <v>53.53110657407782</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J45" t="n">
         <v>129.3364848865957</v>
       </c>
       <c r="K45" t="n">
-        <v>385.5055637579836</v>
+        <v>239.7918714752595</v>
       </c>
       <c r="L45" t="n">
-        <v>790.8061104916227</v>
+        <v>645.0924182088986</v>
       </c>
       <c r="M45" t="n">
-        <v>1316.572925812729</v>
+        <v>1170.859233530005</v>
       </c>
       <c r="N45" t="n">
         <v>1725.940263988108</v>
@@ -7745,19 +7745,19 @@
         <v>2166.102944282447</v>
       </c>
       <c r="P45" t="n">
-        <v>2502.945759567338</v>
+        <v>2502.945759567337</v>
       </c>
       <c r="Q45" t="n">
         <v>2676.555328703891</v>
       </c>
       <c r="R45" t="n">
-        <v>2626.774708455268</v>
+        <v>2626.774708455267</v>
       </c>
       <c r="S45" t="n">
-        <v>2469.829437388748</v>
+        <v>2469.829437388747</v>
       </c>
       <c r="T45" t="n">
-        <v>2272.420954324037</v>
+        <v>2272.420954324036</v>
       </c>
       <c r="U45" t="n">
         <v>2045.543118600484</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="C46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="D46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="E46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="F46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="G46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="H46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="I46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="J46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="K46" t="n">
-        <v>2058.295281151353</v>
+        <v>109.4344173802943</v>
       </c>
       <c r="L46" t="n">
-        <v>2185.635887283475</v>
+        <v>236.775023512417</v>
       </c>
       <c r="M46" t="n">
-        <v>2330.49160160171</v>
+        <v>381.630737830651</v>
       </c>
       <c r="N46" t="n">
-        <v>2477.044232696738</v>
+        <v>528.1833689256792</v>
       </c>
       <c r="O46" t="n">
-        <v>2597.072711188271</v>
+        <v>648.2118474172128</v>
       </c>
       <c r="P46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="Q46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="R46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="S46" t="n">
-        <v>2676.555328703891</v>
+        <v>727.6944649328329</v>
       </c>
       <c r="T46" t="n">
-        <v>2676.555328703891</v>
+        <v>499.7021009827838</v>
       </c>
       <c r="U46" t="n">
-        <v>2387.647426426405</v>
+        <v>210.7941987052974</v>
       </c>
       <c r="V46" t="n">
-        <v>2291.374371241516</v>
+        <v>210.7941987052974</v>
       </c>
       <c r="W46" t="n">
-        <v>2002.391970345136</v>
+        <v>210.7941987052974</v>
       </c>
       <c r="X46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
       <c r="Y46" t="n">
-        <v>2002.391970345136</v>
+        <v>53.53110657407781</v>
       </c>
     </row>
   </sheetData>
@@ -7999,7 +7999,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q2" t="n">
-        <v>220.8075902863009</v>
+        <v>220.807590286301</v>
       </c>
       <c r="R2" t="n">
         <v>68.34507666790174</v>
@@ -8060,7 +8060,7 @@
         <v>123.666686</v>
       </c>
       <c r="K3" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L3" t="n">
         <v>385.6739591155975</v>
@@ -8072,10 +8072,10 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>285.2848966592321</v>
+        <v>225.3571079957513</v>
       </c>
       <c r="P3" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q3" t="n">
         <v>136.482229733871</v>
@@ -8294,7 +8294,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J6" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K6" t="n">
         <v>275.0438464930818</v>
@@ -8306,13 +8306,13 @@
         <v>138.5806830739679</v>
       </c>
       <c r="N6" t="n">
-        <v>402.3419766228525</v>
+        <v>351.7176364193258</v>
       </c>
       <c r="O6" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>273.1089484279829</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q6" t="n">
         <v>136.482229733871</v>
@@ -8531,25 +8531,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>335.0496189120709</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M9" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O9" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
-        <v>331.2012793855346</v>
+        <v>269.4106148008457</v>
       </c>
       <c r="Q9" t="n">
         <v>136.482229733871</v>
@@ -8768,28 +8768,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>123.2740250551552</v>
+        <v>109.8042458063402</v>
       </c>
       <c r="K12" t="n">
-        <v>133.7242829031451</v>
+        <v>110.7022847320471</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>261.5863335330605</v>
       </c>
       <c r="M12" t="n">
-        <v>413.8895369278829</v>
+        <v>454.7641991243842</v>
       </c>
       <c r="N12" t="n">
-        <v>403.3391517000103</v>
+        <v>443.257716571808</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>148.3289482581268</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.9517063533982</v>
+        <v>117.7527158117562</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9008,7 +9008,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
-        <v>127.858298732754</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
         <v>385.6739591155975</v>
@@ -9026,7 +9026,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>71.29483148495589</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9248,13 +9248,13 @@
         <v>275.0438464930818</v>
       </c>
       <c r="L18" t="n">
-        <v>238.4884113552703</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569681</v>
       </c>
       <c r="O18" t="n">
         <v>409.6168120477987</v>
@@ -9479,7 +9479,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
         <v>275.0438464930818</v>
@@ -9491,7 +9491,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N21" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O21" t="n">
         <v>409.6168120477987</v>
@@ -9500,7 +9500,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q21" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R21" t="n">
         <v>47.34253660377365</v>
@@ -9716,13 +9716,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>54.56358754946164</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K24" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>238.4884113552702</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
@@ -9737,7 +9737,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
-        <v>147.8659206895198</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R24" t="n">
         <v>47.34253660377365</v>
@@ -9886,7 +9886,7 @@
         <v>467.4940748325458</v>
       </c>
       <c r="N26" t="n">
-        <v>454.8408013884635</v>
+        <v>454.8408013884634</v>
       </c>
       <c r="O26" t="n">
         <v>396.0321885132552</v>
@@ -9965,7 +9965,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N27" t="n">
-        <v>498.5160693172957</v>
+        <v>351.3305215569685</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -9974,7 +9974,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q27" t="n">
-        <v>71.29483148495635</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R27" t="n">
         <v>47.34253660377365</v>
@@ -10202,7 +10202,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N30" t="n">
-        <v>351.3305215569685</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O30" t="n">
         <v>409.6168120477987</v>
@@ -10211,7 +10211,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>218.4803792452831</v>
+        <v>71.29483148495635</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10427,7 +10427,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K33" t="n">
         <v>275.0438464930818</v>
@@ -10448,7 +10448,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>71.29483148495635</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>175.8604797789565</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K35" t="n">
         <v>337.1112290740114</v>
@@ -10667,7 +10667,7 @@
         <v>54.56358754946164</v>
       </c>
       <c r="K36" t="n">
-        <v>204.429387937318</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L36" t="n">
         <v>385.6739591155975</v>
@@ -10685,7 +10685,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10831,7 +10831,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M38" t="n">
-        <v>467.4940748325461</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N38" t="n">
         <v>454.8408013884635</v>
@@ -10840,7 +10840,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P38" t="n">
-        <v>334.6706564983419</v>
+        <v>334.6706564983426</v>
       </c>
       <c r="Q38" t="n">
         <v>220.8075902863009</v>
@@ -10901,10 +10901,10 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>54.56358754946164</v>
       </c>
       <c r="K39" t="n">
-        <v>275.0438464930818</v>
+        <v>204.4293879373184</v>
       </c>
       <c r="L39" t="n">
         <v>385.6739591155975</v>
@@ -10913,7 +10913,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N39" t="n">
-        <v>351.330521556969</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O39" t="n">
         <v>409.6168120477987</v>
@@ -11141,7 +11141,7 @@
         <v>54.56358754946164</v>
       </c>
       <c r="K42" t="n">
-        <v>204.4293879373176</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L42" t="n">
         <v>385.6739591155975</v>
@@ -11159,7 +11159,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>218.4803792452831</v>
+        <v>147.8659206895198</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>175.8604797789569</v>
+        <v>175.8604797789567</v>
       </c>
       <c r="K44" t="n">
         <v>337.1112290740114</v>
@@ -11378,7 +11378,7 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K45" t="n">
-        <v>275.0438464930818</v>
+        <v>127.8582987327544</v>
       </c>
       <c r="L45" t="n">
         <v>385.6739591155975</v>
@@ -11387,7 +11387,7 @@
         <v>484.3332662999999</v>
       </c>
       <c r="N45" t="n">
-        <v>351.330521556969</v>
+        <v>498.5160693172957</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
@@ -22549,19 +22549,19 @@
         <v>383.716409991395</v>
       </c>
       <c r="C2" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D2" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>383.1180357552875</v>
+        <v>141.5288582488041</v>
       </c>
       <c r="F2" t="n">
-        <v>165.7046859740575</v>
+        <v>133.0100561389384</v>
       </c>
       <c r="G2" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H2" t="n">
         <v>338.1439033881534</v>
@@ -22606,13 +22606,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X2" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y2" t="n">
         <v>386.6870717512358</v>
@@ -22625,19 +22625,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>112.296848622536</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F3" t="n">
-        <v>125.741980398888</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G3" t="n">
         <v>136.0232102050423</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>168.9616139056444</v>
@@ -22682,19 +22682,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I4" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22767,7 +22767,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W4" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X4" t="n">
         <v>226.1403599323093</v>
@@ -22798,7 +22798,7 @@
         <v>407.2938634805408</v>
       </c>
       <c r="G5" t="n">
-        <v>414.8547654038309</v>
+        <v>246.6975549801614</v>
       </c>
       <c r="H5" t="n">
         <v>338.1439033881534</v>
@@ -22831,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U5" t="n">
-        <v>232.8537032664814</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V5" t="n">
         <v>328.5332215225193</v>
@@ -22852,7 +22852,7 @@
         <v>96.5777917895669</v>
       </c>
       <c r="Y5" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>145.2934483255617</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
         <v>168.9616139056444</v>
@@ -22919,19 +22919,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>50.24743635262973</v>
       </c>
     </row>
     <row r="7">
@@ -22968,7 +22968,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>9.252430746007292</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22989,7 +22989,7 @@
         <v>79.76069987584818</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
         <v>222.3574069614225</v>
@@ -23010,7 +23010,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.7486738677682</v>
+        <v>39.83554722615986</v>
       </c>
     </row>
     <row r="8">
@@ -23023,7 +23023,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C8" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734015</v>
       </c>
       <c r="D8" t="n">
         <v>356.6047327545984</v>
@@ -23032,16 +23032,16 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>370.9289938421815</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G8" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H8" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J8" t="n">
         <v>0.6592771345624158</v>
@@ -23068,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>83.32055315287499</v>
       </c>
       <c r="T8" t="n">
         <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -23086,10 +23086,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y8" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="9">
@@ -23105,16 +23105,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G9" t="n">
-        <v>57.30356099545209</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H9" t="n">
         <v>110.4625155221328</v>
@@ -23150,7 +23150,7 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S9" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>198.3825319082687</v>
@@ -23162,10 +23162,10 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>249.98934675</v>
+        <v>99.04085168916362</v>
       </c>
       <c r="X9" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23199,13 +23199,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I10" t="n">
-        <v>78.45867480140757</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W10" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458072</v>
       </c>
       <c r="X10" t="n">
         <v>226.1403599323093</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.3544934763368</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C11" t="n">
-        <v>123.5655196124792</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D11" t="n">
-        <v>356.6047327545984</v>
+        <v>3.244058262711064</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>29.75736126340013</v>
       </c>
       <c r="F11" t="n">
-        <v>130.9319469654826</v>
+        <v>53.93318898865351</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8469976648709</v>
+        <v>227.9651098118716</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0643520315285</v>
+        <v>335.3354348149113</v>
       </c>
       <c r="I11" t="n">
-        <v>204.9248421118658</v>
+        <v>194.6520159438066</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>141.3628824684264</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>205.6879443719866</v>
+        <v>199.6159120445201</v>
       </c>
       <c r="T11" t="n">
-        <v>222.9311139191226</v>
+        <v>221.7646708466713</v>
       </c>
       <c r="U11" t="n">
-        <v>251.4771421574276</v>
+        <v>251.4558250938534</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
@@ -23326,7 +23326,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>110.3251552361775</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23339,7 +23339,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C12" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>146.1124235746456</v>
@@ -23348,16 +23348,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0190540982959</v>
+        <v>135.87648366662</v>
       </c>
       <c r="H12" t="n">
-        <v>110.4223762806608</v>
+        <v>109.0454460589491</v>
       </c>
       <c r="I12" t="n">
-        <v>86.36044943933398</v>
+        <v>81.45177448909037</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>94.43693657204597</v>
+        <v>85.58506362992514</v>
       </c>
       <c r="S12" t="n">
-        <v>168.8844160456835</v>
+        <v>166.2362328081954</v>
       </c>
       <c r="T12" t="n">
-        <v>198.3657798815145</v>
+        <v>197.791120992435</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>42.18243684420722</v>
+        <v>57.88809326501644</v>
       </c>
     </row>
     <row r="13">
@@ -23430,19 +23430,19 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
-        <v>167.8861045898245</v>
+        <v>167.7665783291587</v>
       </c>
       <c r="H13" t="n">
-        <v>161.6030930562142</v>
+        <v>160.5403959386579</v>
       </c>
       <c r="I13" t="n">
-        <v>153.6537631823318</v>
+        <v>150.0592825433989</v>
       </c>
       <c r="J13" t="n">
-        <v>88.59250206973378</v>
+        <v>80.14199544065846</v>
       </c>
       <c r="K13" t="n">
-        <v>14.36959272852937</v>
+        <v>0.4828144438974267</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>79.46893389083417</v>
+        <v>69.46023946362409</v>
       </c>
       <c r="R13" t="n">
-        <v>173.2344790603067</v>
+        <v>167.8601437398224</v>
       </c>
       <c r="S13" t="n">
-        <v>40.92221066616563</v>
+        <v>220.2136676703321</v>
       </c>
       <c r="T13" t="n">
-        <v>228.3175783557508</v>
+        <v>227.8068752419967</v>
       </c>
       <c r="U13" t="n">
-        <v>286.0520803361397</v>
+        <v>286.0455607219215</v>
       </c>
       <c r="V13" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W13" t="n">
-        <v>286.0925768874155</v>
+        <v>20.28443944739757</v>
       </c>
       <c r="X13" t="n">
         <v>226.1403599323093</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>191.0781500965132</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>55.97983816907745</v>
+        <v>55.9798381690774</v>
       </c>
       <c r="S14" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.6870717512358</v>
+        <v>216.6366062688208</v>
       </c>
     </row>
     <row r="15">
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23658,25 +23658,25 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D16" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.9746241731992</v>
       </c>
       <c r="F16" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.2763914303091</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1821887834319</v>
+        <v>70.01762882000382</v>
       </c>
       <c r="I16" t="n">
-        <v>135.3180256216326</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J16" t="n">
-        <v>45.48578169199551</v>
+        <v>45.48578169199548</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,25 +23697,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>28.41377105177701</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U16" t="n">
-        <v>230.2139150083481</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V16" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W16" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>226.1403599323093</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>255.0365858874647</v>
       </c>
       <c r="G17" t="n">
-        <v>88.84253964499902</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>55.9798381690774</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3684020854885</v>
@@ -23797,10 +23797,10 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C19" t="n">
         <v>167.3365529312023</v>
@@ -23901,10 +23901,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.2763914303091</v>
+        <v>11.58593022040185</v>
       </c>
       <c r="H19" t="n">
         <v>156.1821887834319</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.9363510669392</v>
@@ -23958,7 +23958,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y19" t="n">
-        <v>103.2821023036378</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="20">
@@ -23974,13 +23974,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>58.47282863465506</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>413.4877467656314</v>
@@ -24022,16 +24022,16 @@
         <v>174.714014505568</v>
       </c>
       <c r="T20" t="n">
-        <v>58.86893036049284</v>
+        <v>216.980993107702</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>167.2763914303091</v>
       </c>
       <c r="H22" t="n">
-        <v>61.46197683719055</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>135.3180256216325</v>
       </c>
       <c r="J22" t="n">
         <v>45.48578169199548</v>
@@ -24180,16 +24180,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U22" t="n">
         <v>286.0188232547115</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.0925768874155</v>
+        <v>239.4604388593641</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24208,10 +24208,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
-        <v>194.0488118563523</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>315.4307919975919</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,19 +24253,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>328.5332215225193</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>350.5301170005546</v>
@@ -24274,7 +24274,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="24">
@@ -24369,10 +24369,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D25" t="n">
-        <v>149.0055665145194</v>
+        <v>60.47060106969933</v>
       </c>
       <c r="E25" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>146.1590214098045</v>
@@ -24411,25 +24411,25 @@
         <v>28.413771051777</v>
       </c>
       <c r="R25" t="n">
-        <v>145.8195582697328</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>211.671046896745</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U25" t="n">
         <v>286.0188232547115</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>37.36742653462949</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y25" t="n">
         <v>218.7486738677682</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>75.46145650305729</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.714014505568</v>
@@ -24505,13 +24505,13 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>350.5301170005546</v>
+        <v>289.7936039791301</v>
       </c>
       <c r="X26" t="n">
-        <v>370.8615991311694</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24654,22 +24654,22 @@
         <v>211.671046896745</v>
       </c>
       <c r="T28" t="n">
-        <v>225.7124403105487</v>
+        <v>97.24588985703181</v>
       </c>
       <c r="U28" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X28" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y28" t="n">
-        <v>90.35587704695533</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>269.2496809522196</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>152.5223218189376</v>
+        <v>106.8319735392773</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,16 +24733,16 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3684020854885</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>370.8615991311694</v>
@@ -24846,10 +24846,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>167.2763914303091</v>
@@ -24888,22 +24888,22 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>211.671046896745</v>
       </c>
       <c r="T31" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V31" t="n">
-        <v>252.9363510669392</v>
+        <v>104.360712185324</v>
       </c>
       <c r="W31" t="n">
         <v>286.0925768874155</v>
       </c>
       <c r="X31" t="n">
-        <v>56.40850530859825</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y31" t="n">
         <v>218.7486738677682</v>
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>407.2938634805408</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>413.4877467656314</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>324.1439237596927</v>
       </c>
       <c r="I32" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S32" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T32" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.3684020854885</v>
       </c>
       <c r="V32" t="n">
-        <v>287.0604269311991</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W32" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>117.8740618933853</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.2763914303091</v>
@@ -25095,7 +25095,7 @@
         <v>156.1821887834319</v>
       </c>
       <c r="I34" t="n">
-        <v>135.3180256216325</v>
+        <v>47.12252331688418</v>
       </c>
       <c r="J34" t="n">
         <v>45.48578169199548</v>
@@ -25131,10 +25131,10 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U34" t="n">
-        <v>157.6260264338987</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25159,10 +25159,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>14.20365228013742</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>324.1439237596927</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25201,19 +25201,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>55.97983816907738</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.714014505568</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>169.3751215308201</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>92.08725399454886</v>
       </c>
       <c r="E37" t="n">
         <v>146.9746241731992</v>
@@ -25362,25 +25362,25 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S37" t="n">
-        <v>211.671046896745</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>225.7124403105487</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.0188232547115</v>
       </c>
       <c r="V37" t="n">
-        <v>157.6260264338986</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X37" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.7486738677682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,10 +25396,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>383.1180357552875</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>324.1439237596927</v>
+        <v>106.7338348009809</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>152.5223218189376</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,10 +25438,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.714014505568</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>125.4781376786741</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
         <v>167.3365529312023</v>
@@ -25557,13 +25557,13 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>44.50659028332647</v>
+        <v>167.2763914303091</v>
       </c>
       <c r="H40" t="n">
         <v>156.1821887834319</v>
@@ -25596,7 +25596,7 @@
         <v>28.413771051777</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>145.8195582697328</v>
       </c>
       <c r="S40" t="n">
         <v>211.671046896745</v>
@@ -25605,19 +25605,19 @@
         <v>225.7124403105487</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0188232547115</v>
+        <v>197.8233209499632</v>
       </c>
       <c r="V40" t="n">
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
@@ -25639,13 +25639,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>122.3857251138624</v>
+        <v>58.65390607570504</v>
       </c>
       <c r="I41" t="n">
         <v>152.5223218189376</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S41" t="n">
         <v>174.714014505568</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.6870717512358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25836,13 +25836,13 @@
         <v>145.8195582697328</v>
       </c>
       <c r="S43" t="n">
-        <v>211.671046896745</v>
+        <v>83.20449644322818</v>
       </c>
       <c r="T43" t="n">
-        <v>29.97574047008847</v>
+        <v>225.7124403105487</v>
       </c>
       <c r="U43" t="n">
-        <v>286.0188232547115</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>226.1403599323093</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.7486738677682</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>356.6047327545984</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>407.2938634805408</v>
+        <v>200.4970689091118</v>
       </c>
       <c r="G44" t="n">
-        <v>307.7864861915508</v>
+        <v>413.4877467656314</v>
       </c>
       <c r="H44" t="n">
-        <v>324.1439237596927</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>152.5223218189376</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>55.97983816907738</v>
       </c>
       <c r="S44" t="n">
         <v>174.714014505568</v>
       </c>
       <c r="T44" t="n">
-        <v>216.980993107702</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26076,19 +26076,19 @@
         <v>211.671046896745</v>
       </c>
       <c r="T46" t="n">
-        <v>225.7124403105487</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>157.626026433899</v>
+        <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
-        <v>226.1403599323093</v>
+        <v>70.44989872240185</v>
       </c>
       <c r="Y46" t="n">
         <v>218.7486738677682</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>502486.0494904171</v>
+        <v>502486.0494904172</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>504162.8245003137</v>
+        <v>562998.9423966053</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>804254.2302566301</v>
+        <v>804254.2302566302</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>804254.2302566303</v>
+        <v>804254.2302566302</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>804254.2302566305</v>
+        <v>804254.2302566306</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>804254.2302566303</v>
+        <v>804254.2302566305</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>804254.2302566305</v>
+        <v>804254.2302566303</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>804254.2302566303</v>
+        <v>804254.2302566305</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>804254.2302566305</v>
+        <v>804254.2302566303</v>
       </c>
     </row>
     <row r="16">
@@ -26316,13 +26316,13 @@
         <v>138541.6990738806</v>
       </c>
       <c r="C2" t="n">
-        <v>138541.6990738805</v>
+        <v>138541.6990738806</v>
       </c>
       <c r="D2" t="n">
         <v>138541.6990738806</v>
       </c>
       <c r="E2" t="n">
-        <v>139036.2407568159</v>
+        <v>156362.5211473845</v>
       </c>
       <c r="F2" t="n">
         <v>227408.2160355475</v>
@@ -26334,28 +26334,28 @@
         <v>227408.2160355476</v>
       </c>
       <c r="I2" t="n">
-        <v>227408.2160355476</v>
+        <v>227408.2160355475</v>
       </c>
       <c r="J2" t="n">
         <v>227408.2160355476</v>
       </c>
       <c r="K2" t="n">
+        <v>227408.2160355475</v>
+      </c>
+      <c r="L2" t="n">
         <v>227408.2160355476</v>
       </c>
-      <c r="L2" t="n">
-        <v>227408.2160355477</v>
-      </c>
       <c r="M2" t="n">
+        <v>227408.2160355475</v>
+      </c>
+      <c r="N2" t="n">
         <v>227408.2160355476</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>227408.2160355476</v>
+      </c>
+      <c r="P2" t="n">
         <v>227408.2160355475</v>
-      </c>
-      <c r="O2" t="n">
-        <v>227408.2160355475</v>
-      </c>
-      <c r="P2" t="n">
-        <v>227408.2160355476</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773985</v>
+        <v>91918.81236773984</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2172.833095747099</v>
+        <v>78414.72407550813</v>
       </c>
       <c r="F3" t="n">
-        <v>379801.0514526757</v>
+        <v>305346.0413079442</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>517.8731184618792</v>
+        <v>19706.27160131957</v>
       </c>
       <c r="N3" t="n">
-        <v>96201.67162208071</v>
+        <v>77342.59682708998</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>35113.13447355731</v>
       </c>
       <c r="E4" t="n">
-        <v>35122.42752165598</v>
+        <v>35541.24419479464</v>
       </c>
       <c r="F4" t="n">
         <v>37260.87822105204</v>
@@ -26478,10 +26478,10 @@
         <v>50304.05548636943</v>
       </c>
       <c r="E5" t="n">
-        <v>16844.92703056127</v>
+        <v>22971.41534676559</v>
       </c>
       <c r="F5" t="n">
-        <v>48096.64131659548</v>
+        <v>48096.6413165955</v>
       </c>
       <c r="G5" t="n">
         <v>48096.6413165955</v>
@@ -26508,10 +26508,10 @@
         <v>48096.64131659552</v>
       </c>
       <c r="O5" t="n">
-        <v>48096.6413165955</v>
+        <v>48096.64131659551</v>
       </c>
       <c r="P5" t="n">
-        <v>48096.64131659552</v>
+        <v>48096.64131659551</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38794.303253786</v>
+        <v>-50483.43227704186</v>
       </c>
       <c r="C6" t="n">
-        <v>53124.50911395377</v>
+        <v>41435.38009069798</v>
       </c>
       <c r="D6" t="n">
-        <v>53124.50911395389</v>
+        <v>41435.38009069797</v>
       </c>
       <c r="E6" t="n">
-        <v>84896.05310885159</v>
+        <v>8859.809886654246</v>
       </c>
       <c r="F6" t="n">
-        <v>-237750.3549547757</v>
+        <v>-169430.3165231959</v>
       </c>
       <c r="G6" t="n">
-        <v>142050.6964978998</v>
+        <v>135915.7247847483</v>
       </c>
       <c r="H6" t="n">
-        <v>142050.6964979001</v>
+        <v>135915.7247847484</v>
       </c>
       <c r="I6" t="n">
-        <v>142050.6964979</v>
+        <v>135915.7247847483</v>
       </c>
       <c r="J6" t="n">
-        <v>70285.98400981381</v>
+        <v>64151.01229666212</v>
       </c>
       <c r="K6" t="n">
-        <v>142050.6964979001</v>
+        <v>135915.7247847483</v>
       </c>
       <c r="L6" t="n">
-        <v>142050.6964979001</v>
+        <v>135915.7247847483</v>
       </c>
       <c r="M6" t="n">
-        <v>141532.8233794382</v>
+        <v>116209.4531834287</v>
       </c>
       <c r="N6" t="n">
-        <v>45849.02487581926</v>
+        <v>58573.1279576584</v>
       </c>
       <c r="O6" t="n">
-        <v>142050.6964979</v>
+        <v>135915.7247847483</v>
       </c>
       <c r="P6" t="n">
-        <v>142050.6964979001</v>
+        <v>135915.7247847483</v>
       </c>
     </row>
   </sheetData>
@@ -26746,10 +26746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.932225066317917</v>
+        <v>68.21496961737806</v>
       </c>
       <c r="F3" t="n">
-        <v>340.0458862521267</v>
+        <v>340.0458862521269</v>
       </c>
       <c r="G3" t="n">
         <v>340.0458862521269</v>
@@ -26798,13 +26798,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="E4" t="n">
-        <v>276.3619165150583</v>
+        <v>353.3606744918873</v>
       </c>
       <c r="F4" t="n">
-        <v>669.1388321759723</v>
+        <v>669.1388321759725</v>
       </c>
       <c r="G4" t="n">
-        <v>669.1388321759727</v>
+        <v>669.1388321759725</v>
       </c>
       <c r="H4" t="n">
         <v>669.1388321759727</v>
@@ -26828,10 +26828,10 @@
         <v>669.1388321759728</v>
       </c>
       <c r="O4" t="n">
-        <v>669.1388321759725</v>
+        <v>669.1388321759727</v>
       </c>
       <c r="P4" t="n">
-        <v>669.1388321759728</v>
+        <v>669.1388321759727</v>
       </c>
     </row>
   </sheetData>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.932225066317917</v>
+        <v>68.21496961737806</v>
       </c>
       <c r="F3" t="n">
-        <v>338.1136611858088</v>
+        <v>271.8309166347489</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.0781091734558</v>
+        <v>79.07686715028484</v>
       </c>
       <c r="F4" t="n">
-        <v>392.776915660914</v>
+        <v>315.7781576840852</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2.0781091734558</v>
+        <v>79.07686715028478</v>
       </c>
       <c r="N4" t="n">
-        <v>392.7769156609141</v>
+        <v>315.7781576840854</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>2.0781091734558</v>
+        <v>79.07686715028484</v>
       </c>
       <c r="N4" t="n">
-        <v>392.776915660914</v>
+        <v>315.7781576840852</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.007767738960072022</v>
+        <v>0.2742310336377005</v>
       </c>
       <c r="H11" t="n">
-        <v>0.07955135662483762</v>
+        <v>2.808468573242101</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2994657562581769</v>
+        <v>10.57229192431746</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6592771345624133</v>
+        <v>23.27501619120781</v>
       </c>
       <c r="K11" t="n">
-        <v>0.9880855247422622</v>
+        <v>34.88321584509168</v>
       </c>
       <c r="L11" t="n">
-        <v>1.225807465941567</v>
+        <v>43.27571384078146</v>
       </c>
       <c r="M11" t="n">
-        <v>1.363946993672747</v>
+        <v>48.15256998523592</v>
       </c>
       <c r="N11" t="n">
-        <v>1.386017081993052</v>
+        <v>48.93172890955904</v>
       </c>
       <c r="O11" t="n">
-        <v>1.308776627708836</v>
+        <v>46.20484406882415</v>
       </c>
       <c r="P11" t="n">
-        <v>1.117010572132058</v>
+        <v>39.43476542589342</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.838828420624478</v>
+        <v>29.61386653374326</v>
       </c>
       <c r="R11" t="n">
-        <v>0.4879402324506246</v>
+        <v>17.22616516674422</v>
       </c>
       <c r="S11" t="n">
-        <v>0.1770073515526414</v>
+        <v>6.249039679019107</v>
       </c>
       <c r="T11" t="n">
-        <v>0.03400327729771529</v>
+        <v>1.200446349749035</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0006214191168057616</v>
+        <v>0.02193848269101604</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004156106746419671</v>
+        <v>0.1467265384222849</v>
       </c>
       <c r="H12" t="n">
-        <v>0.04013924147200051</v>
+        <v>1.417069463183646</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1430940261376948</v>
+        <v>5.0517689763813</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3926609448448514</v>
+        <v>13.86244019365982</v>
       </c>
       <c r="K12" t="n">
-        <v>0.6711200968549693</v>
+        <v>23.69311826795291</v>
       </c>
       <c r="L12" t="n">
-        <v>0.9024037915855517</v>
+        <v>31.85832142366322</v>
       </c>
       <c r="M12" t="n">
-        <v>1.053062661143265</v>
+        <v>37.17715844147104</v>
       </c>
       <c r="N12" t="n">
-        <v>1.080934096297983</v>
+        <v>38.16112720132926</v>
       </c>
       <c r="O12" t="n">
-        <v>0.9888435204957361</v>
+        <v>34.90997600786705</v>
       </c>
       <c r="P12" t="n">
-        <v>0.7936341031825421</v>
+        <v>28.01833346416421</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.5305233804727987</v>
+        <v>18.72951392211482</v>
       </c>
       <c r="R12" t="n">
-        <v>0.2580431890452494</v>
+        <v>9.109916131166077</v>
       </c>
       <c r="S12" t="n">
-        <v>0.07719785996090918</v>
+        <v>2.725381097449018</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0167520267542091</v>
+        <v>0.5914109158336832</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0002734280754223468</v>
+        <v>0.009653061738308219</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.003484340283524112</v>
+        <v>0.1230106009493703</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03097895270260531</v>
+        <v>1.093676070258947</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1047836150717979</v>
+        <v>3.699264254004699</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2463428580451547</v>
+        <v>8.696849487120478</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4048169893039831</v>
+        <v>14.29159527393592</v>
       </c>
       <c r="L13" t="n">
-        <v>0.5180263726977576</v>
+        <v>18.28832152660001</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5461861773527841</v>
+        <v>19.28247083790901</v>
       </c>
       <c r="N13" t="n">
-        <v>0.5331990908414674</v>
+        <v>18.82397677982501</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4924956611657537</v>
+        <v>17.38698930509827</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4214151193818615</v>
+        <v>14.8775730457311</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.2917659850140054</v>
+        <v>10.30046041222409</v>
       </c>
       <c r="R13" t="n">
-        <v>0.1566686094755478</v>
+        <v>5.531003929959865</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06072254839559746</v>
+        <v>2.143739291090388</v>
       </c>
       <c r="T13" t="n">
-        <v>0.01488763575687575</v>
+        <v>0.5255907495109455</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0001900549245558609</v>
+        <v>0.006709669142692931</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.367018638199503</v>
+        <v>1.367018638199504</v>
       </c>
       <c r="H14" t="n">
-        <v>13.99997962846067</v>
+        <v>13.99997962846068</v>
       </c>
       <c r="I14" t="n">
-        <v>52.7019860491864</v>
+        <v>52.70198604918644</v>
       </c>
       <c r="J14" t="n">
-        <v>116.0239981438852</v>
+        <v>116.0239981438853</v>
       </c>
       <c r="K14" t="n">
-        <v>173.8898970988702</v>
+        <v>173.8898970988703</v>
       </c>
       <c r="L14" t="n">
-        <v>215.7257937476683</v>
+        <v>215.7257937476685</v>
       </c>
       <c r="M14" t="n">
-        <v>240.0365114547487</v>
+        <v>240.0365114547489</v>
       </c>
       <c r="N14" t="n">
-        <v>243.9205531605331</v>
+        <v>243.9205531605332</v>
       </c>
       <c r="O14" t="n">
-        <v>230.3272615769367</v>
+        <v>230.3272615769369</v>
       </c>
       <c r="P14" t="n">
-        <v>196.5789889463865</v>
+        <v>196.5789889463866</v>
       </c>
       <c r="Q14" t="n">
-        <v>147.6226339658667</v>
+        <v>147.6226339658668</v>
       </c>
       <c r="R14" t="n">
-        <v>85.87098453179962</v>
+        <v>85.87098453179968</v>
       </c>
       <c r="S14" t="n">
-        <v>31.15093721797121</v>
+        <v>31.15093721797123</v>
       </c>
       <c r="T14" t="n">
-        <v>5.984124088718329</v>
+        <v>5.984124088718333</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1093614910559602</v>
+        <v>0.1093614910559603</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7314194534479707</v>
+        <v>0.7314194534479712</v>
       </c>
       <c r="H15" t="n">
-        <v>7.063972089879086</v>
+        <v>7.063972089879091</v>
       </c>
       <c r="I15" t="n">
-        <v>25.18264346301127</v>
+        <v>25.18264346301129</v>
       </c>
       <c r="J15" t="n">
-        <v>69.10309845053833</v>
+        <v>69.10309845053837</v>
       </c>
       <c r="K15" t="n">
         <v>118.1082018315524</v>
       </c>
       <c r="L15" t="n">
-        <v>158.8110528199201</v>
+        <v>158.8110528199202</v>
       </c>
       <c r="M15" t="n">
-        <v>185.325008007409</v>
+        <v>185.3250080074092</v>
       </c>
       <c r="N15" t="n">
-        <v>190.230009517593</v>
+        <v>190.2300095175932</v>
       </c>
       <c r="O15" t="n">
-        <v>174.0232942596143</v>
+        <v>174.0232942596144</v>
       </c>
       <c r="P15" t="n">
-        <v>139.6690358079726</v>
+        <v>139.6690358079727</v>
       </c>
       <c r="Q15" t="n">
-        <v>93.36505163662167</v>
+        <v>93.36505163662173</v>
       </c>
       <c r="R15" t="n">
-        <v>45.41216571495384</v>
+        <v>45.41216571495388</v>
       </c>
       <c r="S15" t="n">
-        <v>13.58579554979015</v>
+        <v>13.58579554979016</v>
       </c>
       <c r="T15" t="n">
-        <v>2.948133674204758</v>
+        <v>2.94813367420476</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04811970088473493</v>
+        <v>0.04811970088473497</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6131974997989169</v>
+        <v>0.6131974997989174</v>
       </c>
       <c r="H16" t="n">
-        <v>5.45188322548492</v>
+        <v>5.451883225484924</v>
       </c>
       <c r="I16" t="n">
-        <v>18.44052117577107</v>
+        <v>18.44052117577109</v>
       </c>
       <c r="J16" t="n">
-        <v>43.35306323578342</v>
+        <v>43.35306323578345</v>
       </c>
       <c r="K16" t="n">
-        <v>71.24240043118324</v>
+        <v>71.2424004311833</v>
       </c>
       <c r="L16" t="n">
-        <v>91.16574465192264</v>
+        <v>91.16574465192269</v>
       </c>
       <c r="M16" t="n">
-        <v>96.12149535484293</v>
+        <v>96.12149535484301</v>
       </c>
       <c r="N16" t="n">
-        <v>93.83594103741069</v>
+        <v>93.83594103741075</v>
       </c>
       <c r="O16" t="n">
-        <v>86.67267933521423</v>
+        <v>86.67267933521428</v>
       </c>
       <c r="P16" t="n">
-        <v>74.16345033931626</v>
+        <v>74.1634503393163</v>
       </c>
       <c r="Q16" t="n">
-        <v>51.34692882407113</v>
+        <v>51.34692882407116</v>
       </c>
       <c r="R16" t="n">
-        <v>27.57158940004948</v>
+        <v>27.5715894000495</v>
       </c>
       <c r="S16" t="n">
         <v>10.68636006467749</v>
       </c>
       <c r="T16" t="n">
-        <v>2.620025680959008</v>
+        <v>2.62002568095901</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03344713635266824</v>
+        <v>0.03344713635266826</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34719,7 +34719,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712711</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>250.5834388302202</v>
@@ -34792,10 +34792,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>146.2535583258988</v>
+        <v>86.32576966241803</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>140.6484434930818</v>
@@ -35026,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>274.2838073416025</v>
+        <v>223.6594671380758</v>
       </c>
       <c r="O6" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>142.4839011990109</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35251,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>199.9590986266935</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O9" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>200.5762321565626</v>
+        <v>138.7855675718737</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>22.61573905664539</v>
       </c>
       <c r="K11" t="n">
-        <v>123.5117098298976</v>
+        <v>157.406840150247</v>
       </c>
       <c r="L11" t="n">
-        <v>205.7212160026724</v>
+        <v>247.7711223775123</v>
       </c>
       <c r="M11" t="n">
-        <v>244.2704444296277</v>
+        <v>291.0590674211908</v>
       </c>
       <c r="N11" t="n">
-        <v>232.5490814637804</v>
+        <v>280.0947932913464</v>
       </c>
       <c r="O11" t="n">
-        <v>172.9952090048194</v>
+        <v>217.8912764459347</v>
       </c>
       <c r="P11" t="n">
-        <v>110.3354962090862</v>
+        <v>148.6532510628476</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.898371079337093</v>
+        <v>33.67340919245587</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>251.4858426218057</v>
+        <v>158.3541346713463</v>
       </c>
       <c r="M12" t="n">
-        <v>276.3619165150583</v>
+        <v>353.3606744918873</v>
       </c>
       <c r="N12" t="n">
-        <v>276.3619165150583</v>
+        <v>353.3606744918873</v>
       </c>
       <c r="O12" t="n">
-        <v>271.5743172349611</v>
+        <v>305.4954497223324</v>
       </c>
       <c r="P12" t="n">
-        <v>18.49753513233736</v>
+        <v>228.5945656207269</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35573,19 +35573,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>37.97915660170704</v>
+        <v>55.7494517556093</v>
       </c>
       <c r="M13" t="n">
-        <v>50.74359417426135</v>
+        <v>69.47987883481758</v>
       </c>
       <c r="N13" t="n">
-        <v>54.73021875547936</v>
+        <v>73.0209964444629</v>
       </c>
       <c r="O13" t="n">
-        <v>35.06070369113682</v>
+        <v>51.95519733506933</v>
       </c>
       <c r="P13" t="n">
-        <v>6.543437018065702</v>
+        <v>20.99959494441494</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>115.3647210093228</v>
+        <v>115.3647210093229</v>
       </c>
       <c r="K14" t="n">
-        <v>296.4135214040256</v>
+        <v>296.4135214040257</v>
       </c>
       <c r="L14" t="n">
-        <v>420.2212022843992</v>
+        <v>420.2212022843993</v>
       </c>
       <c r="M14" t="n">
-        <v>482.9430088907036</v>
+        <v>482.9430088907038</v>
       </c>
       <c r="N14" t="n">
-        <v>475.0836175423204</v>
+        <v>475.0836175423206</v>
       </c>
       <c r="O14" t="n">
-        <v>402.0136939540473</v>
+        <v>402.0136939540475</v>
       </c>
       <c r="P14" t="n">
-        <v>305.7974745833407</v>
+        <v>305.7974745833408</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.6821766245793</v>
+        <v>151.6821766245794</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.57108920456348</v>
+        <v>76.57108920456352</v>
       </c>
       <c r="K15" t="n">
-        <v>111.5710975643063</v>
+        <v>258.7566453246342</v>
       </c>
       <c r="L15" t="n">
         <v>409.3944916501404</v>
       </c>
       <c r="M15" t="n">
-        <v>531.0775912334411</v>
+        <v>531.0775912334412</v>
       </c>
       <c r="N15" t="n">
-        <v>560.6879095536387</v>
+        <v>560.6879095536389</v>
       </c>
       <c r="O15" t="n">
-        <v>444.6087679740797</v>
+        <v>444.6087679740798</v>
       </c>
       <c r="P15" t="n">
-        <v>340.2452679645352</v>
+        <v>340.2452679645353</v>
       </c>
       <c r="Q15" t="n">
-        <v>175.3632011480338</v>
+        <v>28.17765338770664</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.46799071334989</v>
+        <v>56.46799071334995</v>
       </c>
       <c r="L16" t="n">
-        <v>128.6268748809319</v>
+        <v>128.626874880932</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3189033517515</v>
+        <v>146.3189033517516</v>
       </c>
       <c r="N16" t="n">
         <v>148.0329607020486</v>
@@ -35822,7 +35822,7 @@
         <v>121.2408873651853</v>
       </c>
       <c r="P16" t="n">
-        <v>80.2854722380001</v>
+        <v>80.28547223800014</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>258.7566453246342</v>
       </c>
       <c r="L18" t="n">
-        <v>262.2089438898132</v>
+        <v>409.3944916501404</v>
       </c>
       <c r="M18" t="n">
         <v>531.0775912334412</v>
       </c>
       <c r="N18" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933113</v>
       </c>
       <c r="O18" t="n">
         <v>444.6087679740798</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K21" t="n">
         <v>258.7566453246342</v>
@@ -36211,7 +36211,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N21" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O21" t="n">
         <v>444.6087679740798</v>
@@ -36220,7 +36220,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.57108920456353</v>
       </c>
       <c r="K24" t="n">
         <v>258.7566453246342</v>
       </c>
       <c r="L24" t="n">
-        <v>409.3944916501405</v>
+        <v>262.2089438898131</v>
       </c>
       <c r="M24" t="n">
         <v>531.0775912334412</v>
@@ -36457,7 +36457,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.7487425922706</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>482.9430088907038</v>
       </c>
       <c r="N26" t="n">
-        <v>475.0836175423206</v>
+        <v>475.0836175423205</v>
       </c>
       <c r="O26" t="n">
         <v>402.0136939540475</v>
@@ -36685,7 +36685,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N27" t="n">
-        <v>560.6879095536389</v>
+        <v>413.5023617933117</v>
       </c>
       <c r="O27" t="n">
         <v>444.6087679740798</v>
@@ -36694,7 +36694,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q27" t="n">
-        <v>28.1776533877071</v>
+        <v>175.3632011480339</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N30" t="n">
-        <v>413.5023617933117</v>
+        <v>560.6879095536389</v>
       </c>
       <c r="O30" t="n">
         <v>444.6087679740798</v>
@@ -36931,7 +36931,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q30" t="n">
-        <v>175.3632011480339</v>
+        <v>28.1776533877071</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>258.7566453246342</v>
@@ -37168,7 +37168,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q33" t="n">
-        <v>28.1776533877071</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>115.3647210093227</v>
+        <v>115.3647210093229</v>
       </c>
       <c r="K35" t="n">
         <v>296.4135214040257</v>
@@ -37387,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.1421867688705</v>
+        <v>258.7566453246342</v>
       </c>
       <c r="L36" t="n">
         <v>409.3944916501405</v>
@@ -37405,7 +37405,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q36" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>420.2212022843993</v>
       </c>
       <c r="M38" t="n">
-        <v>482.9430088907041</v>
+        <v>482.9430088907038</v>
       </c>
       <c r="N38" t="n">
         <v>475.0836175423206</v>
@@ -37560,7 +37560,7 @@
         <v>402.0136939540475</v>
       </c>
       <c r="P38" t="n">
-        <v>305.7974745833408</v>
+        <v>305.7974745833414</v>
       </c>
       <c r="Q38" t="n">
         <v>151.6821766245795</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.57108920456353</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>258.7566453246342</v>
+        <v>188.1421867688709</v>
       </c>
       <c r="L39" t="n">
         <v>409.3944916501405</v>
@@ -37633,7 +37633,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N39" t="n">
-        <v>413.5023617933122</v>
+        <v>560.6879095536389</v>
       </c>
       <c r="O39" t="n">
         <v>444.6087679740798</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.14218676887</v>
+        <v>258.7566453246342</v>
       </c>
       <c r="L42" t="n">
         <v>409.3944916501405</v>
@@ -37879,7 +37879,7 @@
         <v>340.2452679645353</v>
       </c>
       <c r="Q42" t="n">
-        <v>175.3632011480339</v>
+        <v>104.7487425922706</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>115.3647210093231</v>
+        <v>115.3647210093229</v>
       </c>
       <c r="K44" t="n">
         <v>296.4135214040257</v>
@@ -38098,7 +38098,7 @@
         <v>76.57108920456353</v>
       </c>
       <c r="K45" t="n">
-        <v>258.7566453246342</v>
+        <v>111.5710975643069</v>
       </c>
       <c r="L45" t="n">
         <v>409.3944916501405</v>
@@ -38107,7 +38107,7 @@
         <v>531.0775912334412</v>
       </c>
       <c r="N45" t="n">
-        <v>413.5023617933122</v>
+        <v>560.6879095536389</v>
       </c>
       <c r="O45" t="n">
         <v>444.6087679740798</v>
